--- a/AAA-Luban-Excel/Datas/scene_Doors.xlsx
+++ b/AAA-Luban-Excel/Datas/scene_Doors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="24690" windowHeight="9900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>##var</t>
   </si>
@@ -41,6 +41,9 @@
     <t>DESCRIBE</t>
   </si>
   <si>
+    <t>toRoomID</t>
+  </si>
+  <si>
     <t>toDoorID</t>
   </si>
   <si>
@@ -84,6 +87,9 @@
   </si>
   <si>
     <t>描述</t>
+  </si>
+  <si>
+    <t>通向房间ID</t>
   </si>
   <si>
     <t>通向哪个门的ID，这个ID就在这个表内</t>
@@ -1032,26 +1038,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D1" sqref="D$1:D$1048576"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="13.65" style="1" customWidth="1"/>
     <col min="3" max="3" width="7.175" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.275" style="1" customWidth="1"/>
-    <col min="5" max="5" width="36.15" style="2" customWidth="1"/>
-    <col min="6" max="6" width="36.825" style="2" customWidth="1"/>
-    <col min="7" max="7" width="56.35" style="2" customWidth="1"/>
-    <col min="8" max="8" width="33.2666666666667" style="2" customWidth="1"/>
-    <col min="9" max="15" width="9" style="2"/>
+    <col min="4" max="4" width="10.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.4083333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="36.15" style="2" customWidth="1"/>
+    <col min="7" max="7" width="36.825" style="2" customWidth="1"/>
+    <col min="8" max="8" width="56.35" style="2" customWidth="1"/>
+    <col min="9" max="9" width="33.2666666666667" style="2" customWidth="1"/>
+    <col min="10" max="16" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1064,7 +1071,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -1076,83 +1083,95 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="G2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" ht="40.5" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" ht="40.5" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="E4" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="F4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8">
+        <v>23</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
       <c r="B5" s="1">
         <v>310001</v>
       </c>
@@ -1162,20 +1181,23 @@
       <c r="D5" s="1">
         <v>0</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
+        <v>300005</v>
+      </c>
+      <c r="F5" s="2">
         <v>310013</v>
       </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
       <c r="G5" s="2">
         <v>0</v>
       </c>
       <c r="H5" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="2:8">
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
       <c r="B6" s="1">
         <v>310002</v>
       </c>
@@ -1186,19 +1208,22 @@
         <v>0</v>
       </c>
       <c r="E6" s="1">
+        <v>300002</v>
+      </c>
+      <c r="F6" s="1">
         <v>310003</v>
       </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
       <c r="G6" s="2">
         <v>0</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="2:8">
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
       <c r="B7" s="1">
         <v>310003</v>
       </c>
@@ -1209,19 +1234,22 @@
         <v>0</v>
       </c>
       <c r="E7" s="1">
+        <v>300001</v>
+      </c>
+      <c r="F7" s="1">
         <v>310002</v>
       </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
       <c r="G7" s="2">
         <v>0</v>
       </c>
       <c r="H7" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="2:8">
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
       <c r="B8" s="1">
         <v>310004</v>
       </c>
@@ -1231,20 +1259,23 @@
       <c r="D8" s="1">
         <v>0</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
+        <v>300005</v>
+      </c>
+      <c r="F8" s="2">
         <v>310012</v>
       </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
       <c r="G8" s="2">
         <v>0</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="2:8">
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
       <c r="B9" s="1">
         <v>310005</v>
       </c>
@@ -1254,20 +1285,23 @@
       <c r="D9" s="1">
         <v>0</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
+        <v>300006</v>
+      </c>
+      <c r="F9" s="2">
         <v>310014</v>
       </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
       <c r="G9" s="2">
         <v>0</v>
       </c>
       <c r="H9" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="2:8">
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
       <c r="B10" s="1">
         <v>310006</v>
       </c>
@@ -1277,20 +1311,23 @@
       <c r="D10" s="1">
         <v>0</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
+        <v>300004</v>
+      </c>
+      <c r="F10" s="2">
         <v>310011</v>
       </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
       <c r="G10" s="2">
         <v>0</v>
       </c>
       <c r="H10" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="2:8">
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
       <c r="B11" s="1">
         <v>310007</v>
       </c>
@@ -1300,20 +1337,23 @@
       <c r="D11" s="1">
         <v>0</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
+        <v>300003</v>
+      </c>
+      <c r="F11" s="2">
         <v>310008</v>
       </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
       <c r="G11" s="2">
         <v>0</v>
       </c>
       <c r="H11" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="2:8">
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
       <c r="B12" s="1">
         <v>310008</v>
       </c>
@@ -1324,19 +1364,22 @@
         <v>0</v>
       </c>
       <c r="E12" s="1">
+        <v>300002</v>
+      </c>
+      <c r="F12" s="1">
         <v>310007</v>
       </c>
-      <c r="F12" s="2">
-        <v>0</v>
-      </c>
       <c r="G12" s="2">
         <v>0</v>
       </c>
       <c r="H12" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="2:8">
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
       <c r="B13" s="1">
         <v>310009</v>
       </c>
@@ -1347,19 +1390,22 @@
         <v>0</v>
       </c>
       <c r="E13" s="1">
+        <v>300004</v>
+      </c>
+      <c r="F13" s="1">
         <v>310010</v>
       </c>
-      <c r="F13" s="2">
-        <v>0</v>
-      </c>
       <c r="G13" s="2">
         <v>0</v>
       </c>
       <c r="H13" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="2:8">
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
       <c r="B14" s="1">
         <v>310010</v>
       </c>
@@ -1370,19 +1416,22 @@
         <v>0</v>
       </c>
       <c r="E14" s="1">
+        <v>300003</v>
+      </c>
+      <c r="F14" s="1">
         <v>310009</v>
       </c>
-      <c r="F14" s="2">
-        <v>0</v>
-      </c>
       <c r="G14" s="2">
         <v>0</v>
       </c>
       <c r="H14" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="2:8">
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9">
       <c r="B15" s="1">
         <v>310011</v>
       </c>
@@ -1393,19 +1442,22 @@
         <v>0</v>
       </c>
       <c r="E15" s="1">
+        <v>300002</v>
+      </c>
+      <c r="F15" s="1">
         <v>310006</v>
       </c>
-      <c r="F15" s="2">
-        <v>0</v>
-      </c>
       <c r="G15" s="2">
         <v>0</v>
       </c>
       <c r="H15" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="2:8">
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9">
       <c r="B16" s="1">
         <v>310012</v>
       </c>
@@ -1416,19 +1468,22 @@
         <v>0</v>
       </c>
       <c r="E16" s="1">
+        <v>300002</v>
+      </c>
+      <c r="F16" s="1">
         <v>310004</v>
       </c>
-      <c r="F16" s="2">
-        <v>0</v>
-      </c>
       <c r="G16" s="2">
         <v>0</v>
       </c>
       <c r="H16" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:8">
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
       <c r="B17" s="1">
         <v>310013</v>
       </c>
@@ -1439,19 +1494,22 @@
         <v>0</v>
       </c>
       <c r="E17" s="1">
+        <v>300001</v>
+      </c>
+      <c r="F17" s="1">
         <v>310001</v>
       </c>
-      <c r="F17" s="2">
-        <v>0</v>
-      </c>
       <c r="G17" s="2">
         <v>0</v>
       </c>
       <c r="H17" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:8">
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
       <c r="B18" s="1">
         <v>310014</v>
       </c>
@@ -1462,15 +1520,18 @@
         <v>0</v>
       </c>
       <c r="E18" s="1">
+        <v>300002</v>
+      </c>
+      <c r="F18" s="1">
         <v>310005</v>
       </c>
-      <c r="F18" s="2">
-        <v>0</v>
-      </c>
       <c r="G18" s="2">
         <v>0</v>
       </c>
       <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
         <v>0</v>
       </c>
     </row>

--- a/AAA-Luban-Excel/Datas/scene_Doors.xlsx
+++ b/AAA-Luban-Excel/Datas/scene_Doors.xlsx
@@ -1,33 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityWork\Project-A\AAA-Luban-Excel\Datas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6604AC74-CE96-4B49-B22A-7938DE0105E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="24690" windowHeight="9900"/>
+    <workbookView xWindow="1185" yWindow="885" windowWidth="26115" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>##var</t>
   </si>
@@ -102,19 +95,17 @@
   </si>
   <si>
     <t>打开门需要消耗玩家什么东西，可以消耗任何一种东西比如San值，生命值，钥匙，子弹，道具</t>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,345 +114,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -469,255 +145,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -727,62 +161,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1032,33 +425,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:I18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="13.65" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.175" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.4083333333333" style="1" customWidth="1"/>
-    <col min="6" max="6" width="36.15" style="2" customWidth="1"/>
-    <col min="7" max="7" width="36.825" style="2" customWidth="1"/>
-    <col min="8" max="8" width="56.35" style="2" customWidth="1"/>
-    <col min="9" max="9" width="33.2666666666667" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="36.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="36.875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="56.375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="33.25" style="2" customWidth="1"/>
     <col min="10" max="16" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1087,7 +480,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1100,11 +493,11 @@
       <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
+      <c r="E2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>12</v>
@@ -1116,7 +509,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -1142,7 +535,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" ht="40.5" spans="1:9">
+    <row r="4" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -1171,7 +564,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="2:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="1">
         <v>310001</v>
       </c>
@@ -1197,7 +590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="1">
         <v>310002</v>
       </c>
@@ -1223,7 +616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B7" s="1">
         <v>310003</v>
       </c>
@@ -1249,7 +642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="1">
         <v>310004</v>
       </c>
@@ -1275,7 +668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B9" s="1">
         <v>310005</v>
       </c>
@@ -1301,7 +694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B10" s="1">
         <v>310006</v>
       </c>
@@ -1327,7 +720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B11" s="1">
         <v>310007</v>
       </c>
@@ -1353,7 +746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B12" s="1">
         <v>310008</v>
       </c>
@@ -1379,7 +772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B13" s="1">
         <v>310009</v>
       </c>
@@ -1405,7 +798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B14" s="1">
         <v>310010</v>
       </c>
@@ -1431,7 +824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B15" s="1">
         <v>310011</v>
       </c>
@@ -1457,7 +850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B16" s="1">
         <v>310012</v>
       </c>
@@ -1483,7 +876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:9">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B17" s="1">
         <v>310013</v>
       </c>
@@ -1509,7 +902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:9">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B18" s="1">
         <v>310014</v>
       </c>
@@ -1536,8 +929,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/AAA-Luban-Excel/Datas/scene_Doors.xlsx
+++ b/AAA-Luban-Excel/Datas/scene_Doors.xlsx
@@ -1,26 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityWork\Project-A\AAA-Luban-Excel\Datas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6604AC74-CE96-4B49-B22A-7938DE0105E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1185" yWindow="885" windowWidth="26115" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="25590" windowHeight="11200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>##var</t>
   </si>
@@ -95,17 +102,19 @@
   </si>
   <si>
     <t>打开门需要消耗玩家什么东西，可以消耗任何一种东西比如San值，生命值，钥匙，子弹，道具</t>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,27 +126,349 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -145,9 +476,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -165,17 +738,61 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -425,33 +1042,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E3" sqref="E3:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="13.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="36.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="36.875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="56.375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="33.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.6272727272727" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.12727272727273" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7545454545455" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.3727272727273" style="1" customWidth="1"/>
+    <col min="6" max="6" width="36.1272727272727" style="2" customWidth="1"/>
+    <col min="7" max="7" width="36.8727272727273" style="2" customWidth="1"/>
+    <col min="8" max="8" width="56.3727272727273" style="2" customWidth="1"/>
+    <col min="9" max="9" width="33.2545454545455" style="2" customWidth="1"/>
     <col min="10" max="16" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -480,7 +1097,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -494,10 +1111,10 @@
         <v>11</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>12</v>
@@ -509,7 +1126,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -519,12 +1136,8 @@
       <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
         <v>15</v>
       </c>
@@ -535,7 +1148,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="4" ht="42" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -564,7 +1177,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:9">
       <c r="B5" s="1">
         <v>310001</v>
       </c>
@@ -590,7 +1203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:9">
       <c r="B6" s="1">
         <v>310002</v>
       </c>
@@ -616,7 +1229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:9">
       <c r="B7" s="1">
         <v>310003</v>
       </c>
@@ -642,7 +1255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:9">
       <c r="B8" s="1">
         <v>310004</v>
       </c>
@@ -668,7 +1281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:9">
       <c r="B9" s="1">
         <v>310005</v>
       </c>
@@ -694,7 +1307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:9">
       <c r="B10" s="1">
         <v>310006</v>
       </c>
@@ -720,7 +1333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:9">
       <c r="B11" s="1">
         <v>310007</v>
       </c>
@@ -746,7 +1359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:9">
       <c r="B12" s="1">
         <v>310008</v>
       </c>
@@ -772,7 +1385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:9">
       <c r="B13" s="1">
         <v>310009</v>
       </c>
@@ -798,7 +1411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:9">
       <c r="B14" s="1">
         <v>310010</v>
       </c>
@@ -824,7 +1437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:9">
       <c r="B15" s="1">
         <v>310011</v>
       </c>
@@ -850,7 +1463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:9">
       <c r="B16" s="1">
         <v>310012</v>
       </c>
@@ -876,7 +1489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:9">
       <c r="B17" s="1">
         <v>310013</v>
       </c>
@@ -902,7 +1515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:9">
       <c r="B18" s="1">
         <v>310014</v>
       </c>
@@ -929,8 +1542,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/AAA-Luban-Excel/Datas/scene_Doors.xlsx
+++ b/AAA-Luban-Excel/Datas/scene_Doors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25590" windowHeight="11200"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>##var</t>
   </si>
@@ -114,14 +114,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -594,133 +587,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -734,7 +727,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1051,20 +1044,20 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:F3"/>
+      <selection activeCell="C3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="13.6272727272727" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.12727272727273" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7545454545455" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.3727272727273" style="1" customWidth="1"/>
-    <col min="6" max="6" width="36.1272727272727" style="2" customWidth="1"/>
-    <col min="7" max="7" width="36.8727272727273" style="2" customWidth="1"/>
-    <col min="8" max="8" width="56.3727272727273" style="2" customWidth="1"/>
-    <col min="9" max="9" width="33.2545454545455" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7583333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="36.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="36.875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="56.375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="33.2583333333333" style="2" customWidth="1"/>
     <col min="10" max="16" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1130,14 +1123,21 @@
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="G3" s="1" t="s">
         <v>15</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" ht="42" spans="1:9">
+    <row r="4" ht="40.5" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>

--- a/AAA-Luban-Excel/Datas/scene_Doors.xlsx
+++ b/AAA-Luban-Excel/Datas/scene_Doors.xlsx
@@ -92,7 +92,7 @@
     <t>通向房间ID</t>
   </si>
   <si>
-    <t>通向哪个门的ID，这个ID就在这个表内</t>
+    <t>通向哪个门</t>
   </si>
   <si>
     <t>门是否隐形</t>
@@ -267,12 +267,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -593,7 +599,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -617,16 +623,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -635,90 +641,93 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -729,6 +738,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1041,503 +1056,577 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C3" sqref="B3:C3"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="13.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7583333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="36.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="36.875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="56.375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="33.2583333333333" style="2" customWidth="1"/>
-    <col min="10" max="16" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="13.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.7583333333333" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="36.125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="36.875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="56.375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="33.2583333333333" style="3" customWidth="1"/>
+    <col min="10" max="16" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" ht="40.5" spans="1:9">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="2:9">
-      <c r="B5" s="1">
+    <row r="5" s="1" customFormat="1" spans="1:16">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5">
         <v>310001</v>
       </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
         <v>300005</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="6">
         <v>310013</v>
       </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9">
-      <c r="B6" s="1">
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
+        <v>1</v>
+      </c>
+      <c r="I5" s="6">
+        <v>240003</v>
+      </c>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:16">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5">
         <v>310002</v>
       </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
         <v>300002</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="5">
         <v>310003</v>
       </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9">
-      <c r="B7" s="1">
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6">
+        <v>1</v>
+      </c>
+      <c r="I6" s="6">
+        <v>240004</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:16">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5">
         <v>310003</v>
       </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
         <v>300001</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="5">
         <v>310002</v>
       </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9">
-      <c r="B8" s="1">
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
+        <v>1</v>
+      </c>
+      <c r="I7" s="6">
+        <v>240004</v>
+      </c>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:16">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5">
         <v>310004</v>
       </c>
-      <c r="C8" s="1">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5">
         <v>300005</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="6">
         <v>310012</v>
       </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0</v>
-      </c>
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6">
+        <v>1</v>
+      </c>
+      <c r="I8" s="6">
+        <v>240001</v>
+      </c>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <v>310005</v>
       </c>
-      <c r="C9" s="1">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
         <v>300006</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="3">
         <v>310014</v>
       </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2">
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <v>310006</v>
       </c>
-      <c r="C10" s="1">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
         <v>300004</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="3">
         <v>310011</v>
       </c>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2">
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="1">
+      <c r="B11" s="2">
         <v>310007</v>
       </c>
-      <c r="C11" s="1">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
         <v>300003</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="3">
         <v>310008</v>
       </c>
-      <c r="G11" s="2">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2">
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="1">
+      <c r="B12" s="2">
         <v>310008</v>
       </c>
-      <c r="C12" s="1">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
         <v>300002</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="2">
         <v>310007</v>
       </c>
-      <c r="G12" s="2">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2">
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="1">
+      <c r="B13" s="2">
         <v>310009</v>
       </c>
-      <c r="C13" s="1">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1">
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
         <v>300004</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="2">
         <v>310010</v>
       </c>
-      <c r="G13" s="2">
-        <v>0</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2">
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="1">
+      <c r="B14" s="2">
         <v>310010</v>
       </c>
-      <c r="C14" s="1">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1">
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
         <v>300003</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="2">
         <v>310009</v>
       </c>
-      <c r="G14" s="2">
-        <v>0</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0</v>
-      </c>
-      <c r="I14" s="2">
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="1">
+      <c r="B15" s="2">
         <v>310011</v>
       </c>
-      <c r="C15" s="1">
-        <v>0</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0</v>
-      </c>
-      <c r="E15" s="1">
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
         <v>300002</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="2">
         <v>310006</v>
       </c>
-      <c r="G15" s="2">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9">
-      <c r="B16" s="1">
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:16">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5">
         <v>310012</v>
       </c>
-      <c r="C16" s="1">
-        <v>0</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0</v>
-      </c>
-      <c r="E16" s="1">
+      <c r="C16" s="5">
+        <v>0</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0</v>
+      </c>
+      <c r="E16" s="5">
         <v>300002</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="5">
         <v>310004</v>
       </c>
-      <c r="G16" s="2">
-        <v>0</v>
-      </c>
-      <c r="H16" s="2">
-        <v>0</v>
-      </c>
-      <c r="I16" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9">
-      <c r="B17" s="1">
+      <c r="G16" s="6">
+        <v>0</v>
+      </c>
+      <c r="H16" s="6">
+        <v>1</v>
+      </c>
+      <c r="I16" s="6">
+        <v>240001</v>
+      </c>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:16">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5">
         <v>310013</v>
       </c>
-      <c r="C17" s="1">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1">
+      <c r="C17" s="5">
+        <v>0</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5">
         <v>300001</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="5">
         <v>310001</v>
       </c>
-      <c r="G17" s="2">
-        <v>0</v>
-      </c>
-      <c r="H17" s="2">
-        <v>0</v>
-      </c>
-      <c r="I17" s="2">
-        <v>0</v>
-      </c>
+      <c r="G17" s="6">
+        <v>0</v>
+      </c>
+      <c r="H17" s="6">
+        <v>1</v>
+      </c>
+      <c r="I17" s="6">
+        <v>240003</v>
+      </c>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="1">
+      <c r="B18" s="2">
         <v>310014</v>
       </c>
-      <c r="C18" s="1">
-        <v>0</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0</v>
-      </c>
-      <c r="E18" s="1">
+      <c r="C18" s="2">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
         <v>300002</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="2">
         <v>310005</v>
       </c>
-      <c r="G18" s="2">
-        <v>0</v>
-      </c>
-      <c r="H18" s="2">
-        <v>0</v>
-      </c>
-      <c r="I18" s="2">
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="2">
+        <v>310015</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3">
+        <v>1</v>
+      </c>
+      <c r="H19" s="3">
+        <v>1</v>
+      </c>
+      <c r="I19" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAA-Luban-Excel/Datas/scene_Doors.xlsx
+++ b/AAA-Luban-Excel/Datas/scene_Doors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="16395" windowHeight="8805"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
     <t>##</t>
   </si>
   <si>
-    <t>序号</t>
+    <t>门的序号</t>
   </si>
   <si>
     <t>名称</t>
@@ -267,7 +267,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -276,7 +276,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,12 +409,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -599,7 +611,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -623,16 +635,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -641,93 +653,105 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -739,10 +763,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1056,577 +1107,3181 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P19"/>
+  <dimension ref="A1:P115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="J118" sqref="J118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="13.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.7583333333333" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="36.125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="36.875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="56.375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="33.2583333333333" style="3" customWidth="1"/>
-    <col min="10" max="16" width="9" style="3"/>
+    <col min="1" max="1" width="1.73333333333333" style="6" customWidth="1"/>
+    <col min="2" max="2" width="6.95" style="6" customWidth="1"/>
+    <col min="3" max="3" width="2.81666666666667" style="6" customWidth="1"/>
+    <col min="4" max="4" width="3.04166666666667" style="6" customWidth="1"/>
+    <col min="5" max="5" width="11.85" style="6" customWidth="1"/>
+    <col min="6" max="6" width="10.5416666666667" style="7" customWidth="1"/>
+    <col min="7" max="7" width="7.5" style="7" customWidth="1"/>
+    <col min="8" max="8" width="25.3166666666667" style="7" customWidth="1"/>
+    <col min="9" max="9" width="19.4583333333333" style="7" customWidth="1"/>
+    <col min="10" max="16" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" ht="40.5" spans="1:9">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="7" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:16">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9">
         <v>310001</v>
       </c>
-      <c r="C5" s="5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5">
+      <c r="C5" s="9">
+        <v>0</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9">
         <v>300005</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="10">
         <v>310013</v>
       </c>
-      <c r="G5" s="6">
-        <v>0</v>
-      </c>
-      <c r="H5" s="6">
+      <c r="G5" s="10">
+        <v>0</v>
+      </c>
+      <c r="H5" s="10">
         <v>1</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="10">
         <v>240003</v>
       </c>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:16">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9">
         <v>310002</v>
       </c>
-      <c r="C6" s="5">
-        <v>0</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5">
+      <c r="C6" s="9">
+        <v>0</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9">
         <v>300002</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="9">
         <v>310003</v>
       </c>
-      <c r="G6" s="6">
-        <v>0</v>
-      </c>
-      <c r="H6" s="6">
+      <c r="G6" s="10">
+        <v>0</v>
+      </c>
+      <c r="H6" s="10">
         <v>1</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="10">
         <v>240004</v>
       </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:16">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9">
         <v>310003</v>
       </c>
-      <c r="C7" s="5">
-        <v>0</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0</v>
-      </c>
-      <c r="E7" s="5">
+      <c r="C7" s="9">
+        <v>0</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9">
         <v>300001</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="9">
         <v>310002</v>
       </c>
-      <c r="G7" s="6">
-        <v>0</v>
-      </c>
-      <c r="H7" s="6">
+      <c r="G7" s="10">
+        <v>0</v>
+      </c>
+      <c r="H7" s="10">
         <v>1</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="10">
         <v>240004</v>
       </c>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:16">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9">
         <v>310004</v>
       </c>
-      <c r="C8" s="5">
-        <v>0</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0</v>
-      </c>
-      <c r="E8" s="5">
+      <c r="C8" s="9">
+        <v>0</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9">
         <v>300005</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="10">
         <v>310012</v>
       </c>
-      <c r="G8" s="6">
-        <v>0</v>
-      </c>
-      <c r="H8" s="6">
+      <c r="G8" s="10">
+        <v>0</v>
+      </c>
+      <c r="H8" s="10">
         <v>1</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="10">
         <v>240001</v>
       </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-    </row>
-    <row r="9" spans="2:9">
-      <c r="B9" s="2">
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+    </row>
+    <row r="9" s="2" customFormat="1" spans="1:16">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11">
         <v>310005</v>
       </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="C9" s="11">
+        <v>0</v>
+      </c>
+      <c r="D9" s="11">
+        <v>0</v>
+      </c>
+      <c r="E9" s="12">
         <v>300006</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="13">
         <v>310014</v>
       </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9">
-      <c r="B10" s="2">
+      <c r="G9" s="13">
+        <v>0</v>
+      </c>
+      <c r="H9" s="13">
+        <v>0</v>
+      </c>
+      <c r="I9" s="13">
+        <v>0</v>
+      </c>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+    </row>
+    <row r="10" s="2" customFormat="1" spans="1:16">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11">
         <v>310006</v>
       </c>
-      <c r="C10" s="2">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2">
+      <c r="C10" s="11">
+        <v>0</v>
+      </c>
+      <c r="D10" s="11">
+        <v>0</v>
+      </c>
+      <c r="E10" s="11">
         <v>300004</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="13">
         <v>310011</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9">
-      <c r="B11" s="2">
+      <c r="G10" s="13">
+        <v>0</v>
+      </c>
+      <c r="H10" s="13">
+        <v>0</v>
+      </c>
+      <c r="I10" s="13">
+        <v>0</v>
+      </c>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+    </row>
+    <row r="11" s="2" customFormat="1" spans="1:16">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11">
         <v>310007</v>
       </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2">
+      <c r="C11" s="11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="11">
         <v>300003</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="13">
         <v>310008</v>
       </c>
-      <c r="G11" s="3">
-        <v>0</v>
-      </c>
-      <c r="H11" s="3">
-        <v>0</v>
-      </c>
-      <c r="I11" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9">
-      <c r="B12" s="2">
+      <c r="G11" s="13">
+        <v>0</v>
+      </c>
+      <c r="H11" s="13">
+        <v>0</v>
+      </c>
+      <c r="I11" s="13">
+        <v>0</v>
+      </c>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+    </row>
+    <row r="12" s="2" customFormat="1" spans="1:16">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11">
         <v>310008</v>
       </c>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2">
+      <c r="C12" s="11">
+        <v>0</v>
+      </c>
+      <c r="D12" s="11">
+        <v>0</v>
+      </c>
+      <c r="E12" s="11">
         <v>300002</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="11">
         <v>310007</v>
       </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9">
-      <c r="B13" s="2">
+      <c r="G12" s="13">
+        <v>0</v>
+      </c>
+      <c r="H12" s="13">
+        <v>0</v>
+      </c>
+      <c r="I12" s="13">
+        <v>0</v>
+      </c>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+    </row>
+    <row r="13" s="2" customFormat="1" spans="1:16">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11">
         <v>310009</v>
       </c>
-      <c r="C13" s="2">
-        <v>0</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2">
+      <c r="C13" s="11">
+        <v>0</v>
+      </c>
+      <c r="D13" s="11">
+        <v>0</v>
+      </c>
+      <c r="E13" s="11">
         <v>300004</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="11">
         <v>310010</v>
       </c>
-      <c r="G13" s="3">
-        <v>0</v>
-      </c>
-      <c r="H13" s="3">
-        <v>0</v>
-      </c>
-      <c r="I13" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9">
-      <c r="B14" s="2">
+      <c r="G13" s="13">
+        <v>0</v>
+      </c>
+      <c r="H13" s="13">
+        <v>0</v>
+      </c>
+      <c r="I13" s="13">
+        <v>0</v>
+      </c>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+    </row>
+    <row r="14" s="2" customFormat="1" spans="1:16">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11">
         <v>310010</v>
       </c>
-      <c r="C14" s="2">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2">
+      <c r="C14" s="11">
+        <v>0</v>
+      </c>
+      <c r="D14" s="11">
+        <v>0</v>
+      </c>
+      <c r="E14" s="11">
         <v>300003</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="11">
         <v>310009</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9">
-      <c r="B15" s="2">
+      <c r="G14" s="13">
+        <v>0</v>
+      </c>
+      <c r="H14" s="13">
+        <v>0</v>
+      </c>
+      <c r="I14" s="13">
+        <v>0</v>
+      </c>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+    </row>
+    <row r="15" s="2" customFormat="1" spans="1:16">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11">
         <v>310011</v>
       </c>
-      <c r="C15" s="2">
-        <v>0</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0</v>
-      </c>
-      <c r="E15" s="2">
+      <c r="C15" s="11">
+        <v>0</v>
+      </c>
+      <c r="D15" s="11">
+        <v>0</v>
+      </c>
+      <c r="E15" s="11">
         <v>300002</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="11">
         <v>310006</v>
       </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
+      <c r="G15" s="13">
+        <v>0</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0</v>
+      </c>
+      <c r="I15" s="13">
+        <v>0</v>
+      </c>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:16">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9">
         <v>310012</v>
       </c>
-      <c r="C16" s="5">
-        <v>0</v>
-      </c>
-      <c r="D16" s="5">
-        <v>0</v>
-      </c>
-      <c r="E16" s="5">
+      <c r="C16" s="9">
+        <v>0</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0</v>
+      </c>
+      <c r="E16" s="9">
         <v>300002</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="9">
         <v>310004</v>
       </c>
-      <c r="G16" s="6">
-        <v>0</v>
-      </c>
-      <c r="H16" s="6">
+      <c r="G16" s="10">
+        <v>0</v>
+      </c>
+      <c r="H16" s="10">
         <v>1</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="10">
         <v>240001</v>
       </c>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:16">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9">
         <v>310013</v>
       </c>
-      <c r="C17" s="5">
-        <v>0</v>
-      </c>
-      <c r="D17" s="5">
-        <v>0</v>
-      </c>
-      <c r="E17" s="5">
+      <c r="C17" s="9">
+        <v>0</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0</v>
+      </c>
+      <c r="E17" s="9">
         <v>300001</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="9">
         <v>310001</v>
       </c>
-      <c r="G17" s="6">
-        <v>0</v>
-      </c>
-      <c r="H17" s="6">
+      <c r="G17" s="10">
+        <v>0</v>
+      </c>
+      <c r="H17" s="10">
         <v>1</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="10">
         <v>240003</v>
       </c>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="2">
+      <c r="B18" s="6">
         <v>310014</v>
       </c>
-      <c r="C18" s="2">
-        <v>0</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0</v>
-      </c>
-      <c r="E18" s="2">
+      <c r="C18" s="6">
+        <v>0</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0</v>
+      </c>
+      <c r="E18" s="6">
         <v>300002</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="6">
         <v>310005</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="G18" s="7">
+        <v>0</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:9">
-      <c r="B19" s="2">
+      <c r="B19" s="6">
         <v>310015</v>
       </c>
-      <c r="C19" s="2">
-        <v>0</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0</v>
-      </c>
-      <c r="F19" s="3">
-        <v>0</v>
-      </c>
-      <c r="G19" s="3">
+      <c r="C19" s="6">
+        <v>0</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0</v>
+      </c>
+      <c r="G19" s="7">
         <v>1</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="7">
         <v>1</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="6">
+        <v>310016</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0</v>
+      </c>
+      <c r="E20" s="6">
+        <v>300008</v>
+      </c>
+      <c r="F20" s="7">
+        <v>310018</v>
+      </c>
+      <c r="G20" s="7">
+        <v>0</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="6">
+        <v>310017</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0</v>
+      </c>
+      <c r="E21" s="6">
+        <v>300006</v>
+      </c>
+      <c r="F21" s="7">
+        <v>310014</v>
+      </c>
+      <c r="G21" s="7">
+        <v>0</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0</v>
+      </c>
+      <c r="I21" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="6">
+        <v>310018</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0</v>
+      </c>
+      <c r="E22" s="6">
+        <v>300007</v>
+      </c>
+      <c r="F22" s="7">
+        <v>310016</v>
+      </c>
+      <c r="G22" s="7">
+        <v>0</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="6">
+        <v>310019</v>
+      </c>
+      <c r="C23" s="6">
+        <v>0</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0</v>
+      </c>
+      <c r="E23" s="6">
+        <v>300041</v>
+      </c>
+      <c r="F23" s="7">
+        <v>310110</v>
+      </c>
+      <c r="G23" s="7">
+        <v>0</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0</v>
+      </c>
+      <c r="I23" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" s="6">
+        <v>310020</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0</v>
+      </c>
+      <c r="E24" s="6">
+        <v>300042</v>
+      </c>
+      <c r="F24" s="7">
+        <v>310111</v>
+      </c>
+      <c r="G24" s="7">
+        <v>0</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25" s="6">
+        <v>310021</v>
+      </c>
+      <c r="C25" s="6">
+        <v>0</v>
+      </c>
+      <c r="D25" s="6">
+        <v>0</v>
+      </c>
+      <c r="E25" s="6">
+        <v>300010</v>
+      </c>
+      <c r="F25" s="7">
+        <v>310025</v>
+      </c>
+      <c r="G25" s="7">
+        <v>0</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26" s="6">
+        <v>310022</v>
+      </c>
+      <c r="C26" s="6">
+        <v>0</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0</v>
+      </c>
+      <c r="E26" s="6">
+        <v>300011</v>
+      </c>
+      <c r="F26" s="7">
+        <v>310028</v>
+      </c>
+      <c r="G26" s="7">
+        <v>0</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" s="6">
+        <v>310023</v>
+      </c>
+      <c r="C27" s="6">
+        <v>0</v>
+      </c>
+      <c r="D27" s="6">
+        <v>0</v>
+      </c>
+      <c r="E27" s="6">
+        <v>300011</v>
+      </c>
+      <c r="F27" s="7">
+        <v>310029</v>
+      </c>
+      <c r="G27" s="7">
+        <v>0</v>
+      </c>
+      <c r="H27" s="7">
+        <v>0</v>
+      </c>
+      <c r="I27" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" s="6">
+        <v>310024</v>
+      </c>
+      <c r="C28" s="6">
+        <v>0</v>
+      </c>
+      <c r="D28" s="6">
+        <v>0</v>
+      </c>
+      <c r="E28" s="6">
+        <v>300012</v>
+      </c>
+      <c r="F28" s="7">
+        <v>310031</v>
+      </c>
+      <c r="G28" s="7">
+        <v>0</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29" s="6">
+        <v>310025</v>
+      </c>
+      <c r="C29" s="6">
+        <v>0</v>
+      </c>
+      <c r="D29" s="6">
+        <v>0</v>
+      </c>
+      <c r="E29" s="6">
+        <v>300008</v>
+      </c>
+      <c r="F29" s="7">
+        <v>310021</v>
+      </c>
+      <c r="G29" s="7">
+        <v>0</v>
+      </c>
+      <c r="H29" s="7">
+        <v>0</v>
+      </c>
+      <c r="I29" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="B30" s="6">
+        <v>310026</v>
+      </c>
+      <c r="C30" s="6">
+        <v>0</v>
+      </c>
+      <c r="D30" s="6">
+        <v>0</v>
+      </c>
+      <c r="E30" s="6">
+        <v>300012</v>
+      </c>
+      <c r="F30" s="7">
+        <v>310032</v>
+      </c>
+      <c r="G30" s="7">
+        <v>0</v>
+      </c>
+      <c r="H30" s="7">
+        <v>0</v>
+      </c>
+      <c r="I30" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="B31" s="6">
+        <v>310027</v>
+      </c>
+      <c r="C31" s="6">
+        <v>0</v>
+      </c>
+      <c r="D31" s="6">
+        <v>0</v>
+      </c>
+      <c r="E31" s="6">
+        <v>300013</v>
+      </c>
+      <c r="F31" s="7">
+        <v>310035</v>
+      </c>
+      <c r="G31" s="7">
+        <v>0</v>
+      </c>
+      <c r="H31" s="7">
+        <v>0</v>
+      </c>
+      <c r="I31" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="B32" s="6">
+        <v>310028</v>
+      </c>
+      <c r="C32" s="6">
+        <v>0</v>
+      </c>
+      <c r="D32" s="6">
+        <v>0</v>
+      </c>
+      <c r="E32" s="6">
+        <v>300008</v>
+      </c>
+      <c r="F32" s="7">
+        <v>310022</v>
+      </c>
+      <c r="G32" s="7">
+        <v>0</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33" s="6">
+        <v>310029</v>
+      </c>
+      <c r="C33" s="6">
+        <v>0</v>
+      </c>
+      <c r="D33" s="6">
+        <v>0</v>
+      </c>
+      <c r="E33" s="6">
+        <v>300008</v>
+      </c>
+      <c r="F33" s="7">
+        <v>310023</v>
+      </c>
+      <c r="G33" s="7">
+        <v>0</v>
+      </c>
+      <c r="H33" s="7">
+        <v>0</v>
+      </c>
+      <c r="I33" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34" s="6">
+        <v>310030</v>
+      </c>
+      <c r="C34" s="6">
+        <v>0</v>
+      </c>
+      <c r="D34" s="6">
+        <v>0</v>
+      </c>
+      <c r="E34" s="6">
+        <v>300014</v>
+      </c>
+      <c r="F34" s="7">
+        <v>310036</v>
+      </c>
+      <c r="G34" s="7">
+        <v>0</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0</v>
+      </c>
+      <c r="I34" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9">
+      <c r="B35" s="6">
+        <v>310031</v>
+      </c>
+      <c r="C35" s="6">
+        <v>0</v>
+      </c>
+      <c r="D35" s="6">
+        <v>0</v>
+      </c>
+      <c r="E35" s="6">
+        <v>300009</v>
+      </c>
+      <c r="F35" s="7">
+        <v>310024</v>
+      </c>
+      <c r="G35" s="7">
+        <v>0</v>
+      </c>
+      <c r="H35" s="7">
+        <v>0</v>
+      </c>
+      <c r="I35" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9">
+      <c r="B36" s="6">
+        <v>310032</v>
+      </c>
+      <c r="C36" s="6">
+        <v>0</v>
+      </c>
+      <c r="D36" s="6">
+        <v>0</v>
+      </c>
+      <c r="E36" s="6">
+        <v>300010</v>
+      </c>
+      <c r="F36" s="7">
+        <v>310026</v>
+      </c>
+      <c r="G36" s="7">
+        <v>0</v>
+      </c>
+      <c r="H36" s="7">
+        <v>0</v>
+      </c>
+      <c r="I36" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9">
+      <c r="B37" s="6">
+        <v>310033</v>
+      </c>
+      <c r="C37" s="6">
+        <v>0</v>
+      </c>
+      <c r="D37" s="6">
+        <v>0</v>
+      </c>
+      <c r="E37" s="6">
+        <v>300013</v>
+      </c>
+      <c r="F37" s="7">
+        <v>310034</v>
+      </c>
+      <c r="G37" s="7">
+        <v>0</v>
+      </c>
+      <c r="H37" s="7">
+        <v>0</v>
+      </c>
+      <c r="I37" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9">
+      <c r="B38" s="6">
+        <v>310034</v>
+      </c>
+      <c r="C38" s="6">
+        <v>0</v>
+      </c>
+      <c r="D38" s="6">
+        <v>0</v>
+      </c>
+      <c r="E38" s="6">
+        <v>300012</v>
+      </c>
+      <c r="F38" s="7">
+        <v>310033</v>
+      </c>
+      <c r="G38" s="7">
+        <v>0</v>
+      </c>
+      <c r="H38" s="7">
+        <v>0</v>
+      </c>
+      <c r="I38" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9">
+      <c r="B39" s="6">
+        <v>310035</v>
+      </c>
+      <c r="C39" s="6">
+        <v>0</v>
+      </c>
+      <c r="D39" s="6">
+        <v>0</v>
+      </c>
+      <c r="E39" s="6">
+        <v>310025</v>
+      </c>
+      <c r="F39" s="7">
+        <v>310027</v>
+      </c>
+      <c r="G39" s="7">
+        <v>0</v>
+      </c>
+      <c r="H39" s="7">
+        <v>0</v>
+      </c>
+      <c r="I39" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9">
+      <c r="B40" s="6">
+        <v>310036</v>
+      </c>
+      <c r="C40" s="6">
+        <v>0</v>
+      </c>
+      <c r="D40" s="6">
+        <v>0</v>
+      </c>
+      <c r="E40" s="6">
+        <v>300011</v>
+      </c>
+      <c r="F40" s="7">
+        <v>310030</v>
+      </c>
+      <c r="G40" s="7">
+        <v>0</v>
+      </c>
+      <c r="H40" s="7">
+        <v>0</v>
+      </c>
+      <c r="I40" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" s="3" customFormat="1" spans="1:16">
+      <c r="A41" s="14"/>
+      <c r="B41" s="14">
+        <v>310037</v>
+      </c>
+      <c r="C41" s="14">
+        <v>0</v>
+      </c>
+      <c r="D41" s="14">
+        <v>0</v>
+      </c>
+      <c r="E41" s="14">
+        <v>300015</v>
+      </c>
+      <c r="F41" s="15">
+        <v>310038</v>
+      </c>
+      <c r="G41" s="15">
+        <v>0</v>
+      </c>
+      <c r="H41" s="15">
+        <v>0</v>
+      </c>
+      <c r="I41" s="15">
+        <v>0</v>
+      </c>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="15"/>
+      <c r="N41" s="15"/>
+      <c r="O41" s="15"/>
+      <c r="P41" s="15"/>
+    </row>
+    <row r="42" spans="2:9">
+      <c r="B42" s="6">
+        <v>310038</v>
+      </c>
+      <c r="C42" s="6">
+        <v>0</v>
+      </c>
+      <c r="D42" s="6">
+        <v>0</v>
+      </c>
+      <c r="E42" s="6">
+        <v>300014</v>
+      </c>
+      <c r="F42" s="7">
+        <v>310037</v>
+      </c>
+      <c r="G42" s="7">
+        <v>0</v>
+      </c>
+      <c r="H42" s="7">
+        <v>0</v>
+      </c>
+      <c r="I42" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" s="4" customFormat="1" spans="1:16">
+      <c r="A43" s="16"/>
+      <c r="B43" s="16">
+        <v>310039</v>
+      </c>
+      <c r="C43" s="16">
+        <v>0</v>
+      </c>
+      <c r="D43" s="16">
+        <v>0</v>
+      </c>
+      <c r="E43" s="16">
+        <v>0</v>
+      </c>
+      <c r="F43" s="17">
+        <v>0</v>
+      </c>
+      <c r="G43" s="17">
+        <v>0</v>
+      </c>
+      <c r="H43" s="17">
+        <v>0</v>
+      </c>
+      <c r="I43" s="17">
+        <v>0</v>
+      </c>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+    </row>
+    <row r="44" s="5" customFormat="1" spans="1:16">
+      <c r="A44" s="18"/>
+      <c r="B44" s="18">
+        <v>310040</v>
+      </c>
+      <c r="C44" s="18">
+        <v>0</v>
+      </c>
+      <c r="D44" s="18">
+        <v>0</v>
+      </c>
+      <c r="E44" s="18">
+        <v>300017</v>
+      </c>
+      <c r="F44" s="19">
+        <v>310041</v>
+      </c>
+      <c r="G44" s="19">
+        <v>0</v>
+      </c>
+      <c r="H44" s="19">
+        <v>0</v>
+      </c>
+      <c r="I44" s="19">
+        <v>0</v>
+      </c>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="19"/>
+      <c r="M44" s="19"/>
+      <c r="N44" s="19"/>
+      <c r="O44" s="19"/>
+      <c r="P44" s="19"/>
+    </row>
+    <row r="45" spans="2:9">
+      <c r="B45" s="6">
+        <v>310041</v>
+      </c>
+      <c r="C45" s="6">
+        <v>0</v>
+      </c>
+      <c r="D45" s="6">
+        <v>0</v>
+      </c>
+      <c r="E45" s="6">
+        <v>300016</v>
+      </c>
+      <c r="F45" s="7">
+        <v>310040</v>
+      </c>
+      <c r="G45" s="7">
+        <v>0</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0</v>
+      </c>
+      <c r="I45" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9">
+      <c r="B46" s="6">
+        <v>310042</v>
+      </c>
+      <c r="C46" s="6">
+        <v>0</v>
+      </c>
+      <c r="D46" s="6">
+        <v>0</v>
+      </c>
+      <c r="E46" s="6">
+        <v>300019</v>
+      </c>
+      <c r="F46" s="7">
+        <v>310043</v>
+      </c>
+      <c r="G46" s="7">
+        <v>0</v>
+      </c>
+      <c r="H46" s="7">
+        <v>0</v>
+      </c>
+      <c r="I46" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9">
+      <c r="B47" s="6">
+        <v>310043</v>
+      </c>
+      <c r="C47" s="6">
+        <v>0</v>
+      </c>
+      <c r="D47" s="6">
+        <v>0</v>
+      </c>
+      <c r="E47" s="6">
+        <v>300017</v>
+      </c>
+      <c r="F47" s="7">
+        <v>310042</v>
+      </c>
+      <c r="G47" s="7">
+        <v>0</v>
+      </c>
+      <c r="H47" s="7">
+        <v>0</v>
+      </c>
+      <c r="I47" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9">
+      <c r="B48" s="6">
+        <v>310044</v>
+      </c>
+      <c r="C48" s="6">
+        <v>0</v>
+      </c>
+      <c r="D48" s="6">
+        <v>0</v>
+      </c>
+      <c r="E48" s="6">
+        <v>300018</v>
+      </c>
+      <c r="F48" s="7">
+        <v>310045</v>
+      </c>
+      <c r="G48" s="7">
+        <v>0</v>
+      </c>
+      <c r="H48" s="7">
+        <v>0</v>
+      </c>
+      <c r="I48" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9">
+      <c r="B49" s="6">
+        <v>310045</v>
+      </c>
+      <c r="C49" s="6">
+        <v>0</v>
+      </c>
+      <c r="D49" s="6">
+        <v>0</v>
+      </c>
+      <c r="E49" s="6">
+        <v>300017</v>
+      </c>
+      <c r="F49" s="7">
+        <v>310044</v>
+      </c>
+      <c r="G49" s="7">
+        <v>0</v>
+      </c>
+      <c r="H49" s="7">
+        <v>0</v>
+      </c>
+      <c r="I49" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9">
+      <c r="B50" s="6">
+        <v>310046</v>
+      </c>
+      <c r="C50" s="6">
+        <v>0</v>
+      </c>
+      <c r="D50" s="6">
+        <v>0</v>
+      </c>
+      <c r="E50" s="6">
+        <v>300020</v>
+      </c>
+      <c r="F50" s="7">
+        <v>310047</v>
+      </c>
+      <c r="G50" s="7">
+        <v>0</v>
+      </c>
+      <c r="H50" s="7">
+        <v>0</v>
+      </c>
+      <c r="I50" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9">
+      <c r="B51" s="6">
+        <v>310047</v>
+      </c>
+      <c r="C51" s="6">
+        <v>0</v>
+      </c>
+      <c r="D51" s="6">
+        <v>0</v>
+      </c>
+      <c r="E51" s="6">
+        <v>300017</v>
+      </c>
+      <c r="F51" s="7">
+        <v>310046</v>
+      </c>
+      <c r="G51" s="7">
+        <v>0</v>
+      </c>
+      <c r="H51" s="7">
+        <v>0</v>
+      </c>
+      <c r="I51" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9">
+      <c r="B52" s="6">
+        <v>310048</v>
+      </c>
+      <c r="C52" s="6">
+        <v>0</v>
+      </c>
+      <c r="D52" s="6">
+        <v>0</v>
+      </c>
+      <c r="E52" s="6">
+        <v>300022</v>
+      </c>
+      <c r="F52" s="7">
+        <v>310049</v>
+      </c>
+      <c r="G52" s="7">
+        <v>0</v>
+      </c>
+      <c r="H52" s="7">
+        <v>0</v>
+      </c>
+      <c r="I52" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9">
+      <c r="B53" s="6">
+        <v>310049</v>
+      </c>
+      <c r="C53" s="6">
+        <v>0</v>
+      </c>
+      <c r="D53" s="6">
+        <v>0</v>
+      </c>
+      <c r="E53" s="6">
+        <v>300020</v>
+      </c>
+      <c r="F53" s="7">
+        <v>310048</v>
+      </c>
+      <c r="G53" s="7">
+        <v>0</v>
+      </c>
+      <c r="H53" s="7">
+        <v>0</v>
+      </c>
+      <c r="I53" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9">
+      <c r="B54" s="6">
+        <v>310050</v>
+      </c>
+      <c r="C54" s="6">
+        <v>0</v>
+      </c>
+      <c r="D54" s="6">
+        <v>0</v>
+      </c>
+      <c r="E54" s="6">
+        <v>300021</v>
+      </c>
+      <c r="F54" s="7">
+        <v>310051</v>
+      </c>
+      <c r="G54" s="7">
+        <v>0</v>
+      </c>
+      <c r="H54" s="7">
+        <v>0</v>
+      </c>
+      <c r="I54" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9">
+      <c r="B55" s="6">
+        <v>310051</v>
+      </c>
+      <c r="C55" s="6">
+        <v>0</v>
+      </c>
+      <c r="D55" s="6">
+        <v>0</v>
+      </c>
+      <c r="E55" s="6">
+        <v>300020</v>
+      </c>
+      <c r="F55" s="7">
+        <v>310050</v>
+      </c>
+      <c r="G55" s="7">
+        <v>0</v>
+      </c>
+      <c r="H55" s="7">
+        <v>0</v>
+      </c>
+      <c r="I55" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9">
+      <c r="B56" s="6">
+        <v>310052</v>
+      </c>
+      <c r="C56" s="6">
+        <v>0</v>
+      </c>
+      <c r="D56" s="6">
+        <v>0</v>
+      </c>
+      <c r="E56" s="6">
+        <v>300023</v>
+      </c>
+      <c r="F56" s="7">
+        <v>310053</v>
+      </c>
+      <c r="G56" s="7">
+        <v>0</v>
+      </c>
+      <c r="H56" s="7">
+        <v>0</v>
+      </c>
+      <c r="I56" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9">
+      <c r="B57" s="6">
+        <v>310053</v>
+      </c>
+      <c r="C57" s="6">
+        <v>0</v>
+      </c>
+      <c r="D57" s="6">
+        <v>0</v>
+      </c>
+      <c r="E57" s="6">
+        <v>300020</v>
+      </c>
+      <c r="F57" s="7">
+        <v>310052</v>
+      </c>
+      <c r="G57" s="7">
+        <v>0</v>
+      </c>
+      <c r="H57" s="7">
+        <v>0</v>
+      </c>
+      <c r="I57" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9">
+      <c r="B58" s="6">
+        <v>310054</v>
+      </c>
+      <c r="C58" s="6">
+        <v>0</v>
+      </c>
+      <c r="D58" s="6">
+        <v>0</v>
+      </c>
+      <c r="E58" s="6">
+        <v>300025</v>
+      </c>
+      <c r="F58" s="7">
+        <v>310055</v>
+      </c>
+      <c r="G58" s="7">
+        <v>0</v>
+      </c>
+      <c r="H58" s="7">
+        <v>0</v>
+      </c>
+      <c r="I58" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9">
+      <c r="B59" s="6">
+        <v>310055</v>
+      </c>
+      <c r="C59" s="6">
+        <v>0</v>
+      </c>
+      <c r="D59" s="6">
+        <v>0</v>
+      </c>
+      <c r="E59" s="6">
+        <v>300023</v>
+      </c>
+      <c r="F59" s="7">
+        <v>310054</v>
+      </c>
+      <c r="G59" s="7">
+        <v>0</v>
+      </c>
+      <c r="H59" s="7">
+        <v>0</v>
+      </c>
+      <c r="I59" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9">
+      <c r="B60" s="6">
+        <v>310056</v>
+      </c>
+      <c r="C60" s="6">
+        <v>0</v>
+      </c>
+      <c r="D60" s="6">
+        <v>0</v>
+      </c>
+      <c r="E60" s="6">
+        <v>300024</v>
+      </c>
+      <c r="F60" s="7">
+        <v>310057</v>
+      </c>
+      <c r="G60" s="7">
+        <v>0</v>
+      </c>
+      <c r="H60" s="7">
+        <v>0</v>
+      </c>
+      <c r="I60" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9">
+      <c r="B61" s="6">
+        <v>310057</v>
+      </c>
+      <c r="C61" s="6">
+        <v>0</v>
+      </c>
+      <c r="D61" s="6">
+        <v>0</v>
+      </c>
+      <c r="E61" s="6">
+        <v>300023</v>
+      </c>
+      <c r="F61" s="7">
+        <v>310056</v>
+      </c>
+      <c r="G61" s="7">
+        <v>0</v>
+      </c>
+      <c r="H61" s="7">
+        <v>0</v>
+      </c>
+      <c r="I61" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9">
+      <c r="B62" s="6">
+        <v>310058</v>
+      </c>
+      <c r="C62" s="6">
+        <v>0</v>
+      </c>
+      <c r="D62" s="6">
+        <v>0</v>
+      </c>
+      <c r="E62" s="6">
+        <v>300026</v>
+      </c>
+      <c r="F62" s="7">
+        <v>310059</v>
+      </c>
+      <c r="G62" s="7">
+        <v>0</v>
+      </c>
+      <c r="H62" s="7">
+        <v>0</v>
+      </c>
+      <c r="I62" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9">
+      <c r="B63" s="6">
+        <v>310059</v>
+      </c>
+      <c r="C63" s="6">
+        <v>0</v>
+      </c>
+      <c r="D63" s="6">
+        <v>0</v>
+      </c>
+      <c r="E63" s="6">
+        <v>300024</v>
+      </c>
+      <c r="F63" s="7">
+        <v>310058</v>
+      </c>
+      <c r="G63" s="7">
+        <v>0</v>
+      </c>
+      <c r="H63" s="7">
+        <v>0</v>
+      </c>
+      <c r="I63" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9">
+      <c r="B64" s="6">
+        <v>310060</v>
+      </c>
+      <c r="C64" s="6">
+        <v>0</v>
+      </c>
+      <c r="D64" s="6">
+        <v>0</v>
+      </c>
+      <c r="E64" s="6">
+        <v>300027</v>
+      </c>
+      <c r="F64" s="7">
+        <v>310061</v>
+      </c>
+      <c r="G64" s="7">
+        <v>0</v>
+      </c>
+      <c r="H64" s="7">
+        <v>0</v>
+      </c>
+      <c r="I64" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9">
+      <c r="B65" s="6">
+        <v>310061</v>
+      </c>
+      <c r="C65" s="6">
+        <v>0</v>
+      </c>
+      <c r="D65" s="6">
+        <v>0</v>
+      </c>
+      <c r="E65" s="6">
+        <v>300026</v>
+      </c>
+      <c r="F65" s="7">
+        <v>310060</v>
+      </c>
+      <c r="G65" s="7">
+        <v>0</v>
+      </c>
+      <c r="H65" s="7">
+        <v>0</v>
+      </c>
+      <c r="I65" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9">
+      <c r="B66" s="6">
+        <v>310062</v>
+      </c>
+      <c r="C66" s="6">
+        <v>0</v>
+      </c>
+      <c r="D66" s="6">
+        <v>0</v>
+      </c>
+      <c r="E66" s="6">
+        <v>300028</v>
+      </c>
+      <c r="F66" s="7">
+        <v>310063</v>
+      </c>
+      <c r="G66" s="7">
+        <v>0</v>
+      </c>
+      <c r="H66" s="7">
+        <v>0</v>
+      </c>
+      <c r="I66" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9">
+      <c r="B67" s="6">
+        <v>310063</v>
+      </c>
+      <c r="C67" s="6">
+        <v>0</v>
+      </c>
+      <c r="D67" s="6">
+        <v>0</v>
+      </c>
+      <c r="E67" s="6">
+        <v>300027</v>
+      </c>
+      <c r="F67" s="7">
+        <v>310062</v>
+      </c>
+      <c r="G67" s="7">
+        <v>0</v>
+      </c>
+      <c r="H67" s="7">
+        <v>0</v>
+      </c>
+      <c r="I67" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9">
+      <c r="B68" s="6">
+        <v>310064</v>
+      </c>
+      <c r="C68" s="6">
+        <v>0</v>
+      </c>
+      <c r="D68" s="6">
+        <v>0</v>
+      </c>
+      <c r="E68" s="6">
+        <v>300029</v>
+      </c>
+      <c r="F68" s="7">
+        <v>310065</v>
+      </c>
+      <c r="G68" s="7">
+        <v>0</v>
+      </c>
+      <c r="H68" s="7">
+        <v>0</v>
+      </c>
+      <c r="I68" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9">
+      <c r="B69" s="6">
+        <v>310065</v>
+      </c>
+      <c r="C69" s="6">
+        <v>0</v>
+      </c>
+      <c r="D69" s="6">
+        <v>0</v>
+      </c>
+      <c r="E69" s="6">
+        <v>300028</v>
+      </c>
+      <c r="F69" s="7">
+        <v>310064</v>
+      </c>
+      <c r="G69" s="7">
+        <v>0</v>
+      </c>
+      <c r="H69" s="7">
+        <v>0</v>
+      </c>
+      <c r="I69" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9">
+      <c r="B70" s="6">
+        <v>310066</v>
+      </c>
+      <c r="C70" s="6">
+        <v>0</v>
+      </c>
+      <c r="D70" s="6">
+        <v>0</v>
+      </c>
+      <c r="E70" s="6">
+        <v>300030</v>
+      </c>
+      <c r="F70" s="7">
+        <v>310067</v>
+      </c>
+      <c r="G70" s="7">
+        <v>0</v>
+      </c>
+      <c r="H70" s="7">
+        <v>0</v>
+      </c>
+      <c r="I70" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9">
+      <c r="B71" s="6">
+        <v>310067</v>
+      </c>
+      <c r="C71" s="6">
+        <v>0</v>
+      </c>
+      <c r="D71" s="6">
+        <v>0</v>
+      </c>
+      <c r="E71" s="6">
+        <v>300029</v>
+      </c>
+      <c r="F71" s="7">
+        <v>310066</v>
+      </c>
+      <c r="G71" s="7">
+        <v>0</v>
+      </c>
+      <c r="H71" s="7">
+        <v>0</v>
+      </c>
+      <c r="I71" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9">
+      <c r="B72" s="6">
+        <v>310068</v>
+      </c>
+      <c r="C72" s="6">
+        <v>0</v>
+      </c>
+      <c r="D72" s="6">
+        <v>0</v>
+      </c>
+      <c r="E72" s="6">
+        <v>300031</v>
+      </c>
+      <c r="F72" s="7">
+        <v>310069</v>
+      </c>
+      <c r="G72" s="7">
+        <v>0</v>
+      </c>
+      <c r="H72" s="7">
+        <v>0</v>
+      </c>
+      <c r="I72" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9">
+      <c r="B73" s="6">
+        <v>310069</v>
+      </c>
+      <c r="C73" s="6">
+        <v>0</v>
+      </c>
+      <c r="D73" s="6">
+        <v>0</v>
+      </c>
+      <c r="E73" s="6">
+        <v>300030</v>
+      </c>
+      <c r="F73" s="7">
+        <v>310068</v>
+      </c>
+      <c r="G73" s="7">
+        <v>0</v>
+      </c>
+      <c r="H73" s="7">
+        <v>0</v>
+      </c>
+      <c r="I73" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9">
+      <c r="B74" s="6">
+        <v>310070</v>
+      </c>
+      <c r="C74" s="6">
+        <v>0</v>
+      </c>
+      <c r="D74" s="6">
+        <v>0</v>
+      </c>
+      <c r="E74" s="6">
+        <v>300032</v>
+      </c>
+      <c r="F74" s="7">
+        <v>310071</v>
+      </c>
+      <c r="G74" s="7">
+        <v>0</v>
+      </c>
+      <c r="H74" s="7">
+        <v>0</v>
+      </c>
+      <c r="I74" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9">
+      <c r="B75" s="6">
+        <v>310071</v>
+      </c>
+      <c r="C75" s="6">
+        <v>0</v>
+      </c>
+      <c r="D75" s="6">
+        <v>0</v>
+      </c>
+      <c r="E75" s="6">
+        <v>300031</v>
+      </c>
+      <c r="F75" s="7">
+        <v>310070</v>
+      </c>
+      <c r="G75" s="7">
+        <v>0</v>
+      </c>
+      <c r="H75" s="7">
+        <v>0</v>
+      </c>
+      <c r="I75" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9">
+      <c r="B76" s="6">
+        <v>310072</v>
+      </c>
+      <c r="C76" s="6">
+        <v>0</v>
+      </c>
+      <c r="D76" s="6">
+        <v>0</v>
+      </c>
+      <c r="E76" s="6">
+        <v>300006</v>
+      </c>
+      <c r="F76" s="7">
+        <v>310014</v>
+      </c>
+      <c r="G76" s="7">
+        <v>0</v>
+      </c>
+      <c r="H76" s="7">
+        <v>0</v>
+      </c>
+      <c r="I76" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" s="3" customFormat="1" spans="1:16">
+      <c r="A77" s="14"/>
+      <c r="B77" s="14">
+        <v>310073</v>
+      </c>
+      <c r="C77" s="14">
+        <v>0</v>
+      </c>
+      <c r="D77" s="14">
+        <v>0</v>
+      </c>
+      <c r="E77" s="14"/>
+      <c r="F77" s="15"/>
+      <c r="G77" s="15">
+        <v>0</v>
+      </c>
+      <c r="H77" s="15">
+        <v>0</v>
+      </c>
+      <c r="I77" s="15">
+        <v>0</v>
+      </c>
+      <c r="J77" s="15"/>
+      <c r="K77" s="15"/>
+      <c r="L77" s="15"/>
+      <c r="M77" s="15"/>
+      <c r="N77" s="15"/>
+      <c r="O77" s="15"/>
+      <c r="P77" s="15"/>
+    </row>
+    <row r="78" s="3" customFormat="1" spans="1:16">
+      <c r="A78" s="14"/>
+      <c r="B78" s="14">
+        <v>310074</v>
+      </c>
+      <c r="C78" s="14">
+        <v>0</v>
+      </c>
+      <c r="D78" s="14">
+        <v>0</v>
+      </c>
+      <c r="E78" s="14"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="15">
+        <v>0</v>
+      </c>
+      <c r="H78" s="15">
+        <v>0</v>
+      </c>
+      <c r="I78" s="15">
+        <v>0</v>
+      </c>
+      <c r="J78" s="15"/>
+      <c r="K78" s="15"/>
+      <c r="L78" s="15"/>
+      <c r="M78" s="15"/>
+      <c r="N78" s="15"/>
+      <c r="O78" s="15"/>
+      <c r="P78" s="15"/>
+    </row>
+    <row r="79" s="4" customFormat="1" spans="1:16">
+      <c r="A79" s="16"/>
+      <c r="B79" s="16">
+        <v>310075</v>
+      </c>
+      <c r="C79" s="16">
+        <v>0</v>
+      </c>
+      <c r="D79" s="16">
+        <v>0</v>
+      </c>
+      <c r="E79" s="16">
+        <v>0</v>
+      </c>
+      <c r="F79" s="17">
+        <v>0</v>
+      </c>
+      <c r="G79" s="17">
+        <v>0</v>
+      </c>
+      <c r="H79" s="17">
+        <v>0</v>
+      </c>
+      <c r="I79" s="17">
+        <v>0</v>
+      </c>
+      <c r="J79" s="17"/>
+      <c r="K79" s="17"/>
+      <c r="L79" s="17"/>
+      <c r="M79" s="17"/>
+      <c r="N79" s="17"/>
+      <c r="O79" s="17"/>
+      <c r="P79" s="17"/>
+    </row>
+    <row r="80" spans="2:9">
+      <c r="B80" s="6">
+        <v>310076</v>
+      </c>
+      <c r="C80" s="6">
+        <v>0</v>
+      </c>
+      <c r="D80" s="6">
+        <v>0</v>
+      </c>
+      <c r="E80" s="6">
+        <v>300036</v>
+      </c>
+      <c r="F80" s="7">
+        <v>310080</v>
+      </c>
+      <c r="G80" s="7">
+        <v>0</v>
+      </c>
+      <c r="H80" s="7">
+        <v>0</v>
+      </c>
+      <c r="I80" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9">
+      <c r="B81" s="6">
+        <v>310077</v>
+      </c>
+      <c r="C81" s="6">
+        <v>0</v>
+      </c>
+      <c r="D81" s="6">
+        <v>0</v>
+      </c>
+      <c r="E81" s="6">
+        <v>300036</v>
+      </c>
+      <c r="F81" s="7">
+        <v>310081</v>
+      </c>
+      <c r="G81" s="7">
+        <v>0</v>
+      </c>
+      <c r="H81" s="7">
+        <v>0</v>
+      </c>
+      <c r="I81" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9">
+      <c r="B82" s="6">
+        <v>310078</v>
+      </c>
+      <c r="C82" s="6">
+        <v>0</v>
+      </c>
+      <c r="D82" s="6">
+        <v>0</v>
+      </c>
+      <c r="E82" s="6">
+        <v>300036</v>
+      </c>
+      <c r="F82" s="7">
+        <v>310082</v>
+      </c>
+      <c r="G82" s="7">
+        <v>0</v>
+      </c>
+      <c r="H82" s="7">
+        <v>0</v>
+      </c>
+      <c r="I82" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9">
+      <c r="B83" s="6">
+        <v>310079</v>
+      </c>
+      <c r="C83" s="6">
+        <v>0</v>
+      </c>
+      <c r="D83" s="6">
+        <v>0</v>
+      </c>
+      <c r="E83" s="6">
+        <v>300035</v>
+      </c>
+      <c r="F83" s="7">
+        <v>310085</v>
+      </c>
+      <c r="G83" s="7">
+        <v>0</v>
+      </c>
+      <c r="H83" s="7">
+        <v>0</v>
+      </c>
+      <c r="I83" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9">
+      <c r="B84" s="6">
+        <v>310080</v>
+      </c>
+      <c r="C84" s="6">
+        <v>0</v>
+      </c>
+      <c r="D84" s="6">
+        <v>0</v>
+      </c>
+      <c r="E84" s="6">
+        <v>300033</v>
+      </c>
+      <c r="F84" s="7">
+        <v>310076</v>
+      </c>
+      <c r="G84" s="7">
+        <v>0</v>
+      </c>
+      <c r="H84" s="7">
+        <v>0</v>
+      </c>
+      <c r="I84" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9">
+      <c r="B85" s="6">
+        <v>310081</v>
+      </c>
+      <c r="C85" s="6">
+        <v>0</v>
+      </c>
+      <c r="D85" s="6">
+        <v>0</v>
+      </c>
+      <c r="E85" s="6">
+        <v>300033</v>
+      </c>
+      <c r="F85" s="7">
+        <v>310077</v>
+      </c>
+      <c r="G85" s="7">
+        <v>0</v>
+      </c>
+      <c r="H85" s="7">
+        <v>0</v>
+      </c>
+      <c r="I85" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9">
+      <c r="B86" s="6">
+        <v>310082</v>
+      </c>
+      <c r="C86" s="6">
+        <v>0</v>
+      </c>
+      <c r="D86" s="6">
+        <v>0</v>
+      </c>
+      <c r="E86" s="6">
+        <v>300033</v>
+      </c>
+      <c r="F86" s="7">
+        <v>310078</v>
+      </c>
+      <c r="G86" s="7">
+        <v>0</v>
+      </c>
+      <c r="H86" s="7">
+        <v>0</v>
+      </c>
+      <c r="I86" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9">
+      <c r="B87" s="6">
+        <v>310083</v>
+      </c>
+      <c r="C87" s="6">
+        <v>0</v>
+      </c>
+      <c r="D87" s="6">
+        <v>0</v>
+      </c>
+      <c r="E87" s="6">
+        <v>300038</v>
+      </c>
+      <c r="F87" s="7">
+        <v>310096</v>
+      </c>
+      <c r="G87" s="7">
+        <v>0</v>
+      </c>
+      <c r="H87" s="7">
+        <v>0</v>
+      </c>
+      <c r="I87" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9">
+      <c r="B88" s="6">
+        <v>310084</v>
+      </c>
+      <c r="C88" s="6">
+        <v>0</v>
+      </c>
+      <c r="D88" s="6">
+        <v>0</v>
+      </c>
+      <c r="E88" s="6">
+        <v>300037</v>
+      </c>
+      <c r="F88" s="7">
+        <v>310090</v>
+      </c>
+      <c r="G88" s="7">
+        <v>0</v>
+      </c>
+      <c r="H88" s="7">
+        <v>0</v>
+      </c>
+      <c r="I88" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9">
+      <c r="B89" s="6">
+        <v>310085</v>
+      </c>
+      <c r="C89" s="6">
+        <v>0</v>
+      </c>
+      <c r="D89" s="6">
+        <v>0</v>
+      </c>
+      <c r="E89" s="6">
+        <v>300033</v>
+      </c>
+      <c r="F89" s="7">
+        <v>310079</v>
+      </c>
+      <c r="G89" s="7">
+        <v>0</v>
+      </c>
+      <c r="H89" s="7">
+        <v>0</v>
+      </c>
+      <c r="I89" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" s="4" customFormat="1" spans="1:16">
+      <c r="A90" s="16"/>
+      <c r="B90" s="16">
+        <v>310086</v>
+      </c>
+      <c r="C90" s="16">
+        <v>0</v>
+      </c>
+      <c r="D90" s="16">
+        <v>0</v>
+      </c>
+      <c r="E90" s="16">
+        <v>0</v>
+      </c>
+      <c r="F90" s="17">
+        <v>0</v>
+      </c>
+      <c r="G90" s="17">
+        <v>0</v>
+      </c>
+      <c r="H90" s="17">
+        <v>0</v>
+      </c>
+      <c r="I90" s="17">
+        <v>0</v>
+      </c>
+      <c r="J90" s="17"/>
+      <c r="K90" s="17"/>
+      <c r="L90" s="17"/>
+      <c r="M90" s="17"/>
+      <c r="N90" s="17"/>
+      <c r="O90" s="17"/>
+      <c r="P90" s="17"/>
+    </row>
+    <row r="91" spans="2:9">
+      <c r="B91" s="6">
+        <v>310087</v>
+      </c>
+      <c r="C91" s="6">
+        <v>0</v>
+      </c>
+      <c r="D91" s="6">
+        <v>0</v>
+      </c>
+      <c r="E91" s="6">
+        <v>300037</v>
+      </c>
+      <c r="F91" s="7">
+        <v>310091</v>
+      </c>
+      <c r="G91" s="7">
+        <v>0</v>
+      </c>
+      <c r="H91" s="7">
+        <v>0</v>
+      </c>
+      <c r="I91" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9">
+      <c r="B92" s="6">
+        <v>310088</v>
+      </c>
+      <c r="C92" s="6">
+        <v>0</v>
+      </c>
+      <c r="D92" s="6">
+        <v>0</v>
+      </c>
+      <c r="E92" s="6">
+        <v>300037</v>
+      </c>
+      <c r="F92" s="7">
+        <v>310092</v>
+      </c>
+      <c r="G92" s="7">
+        <v>0</v>
+      </c>
+      <c r="H92" s="7">
+        <v>0</v>
+      </c>
+      <c r="I92" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9">
+      <c r="B93" s="6">
+        <v>310089</v>
+      </c>
+      <c r="C93" s="6">
+        <v>0</v>
+      </c>
+      <c r="D93" s="6">
+        <v>0</v>
+      </c>
+      <c r="E93" s="6">
+        <v>300037</v>
+      </c>
+      <c r="F93" s="7">
+        <v>310093</v>
+      </c>
+      <c r="G93" s="7">
+        <v>0</v>
+      </c>
+      <c r="H93" s="7">
+        <v>0</v>
+      </c>
+      <c r="I93" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9">
+      <c r="B94" s="6">
+        <v>310090</v>
+      </c>
+      <c r="C94" s="6">
+        <v>0</v>
+      </c>
+      <c r="D94" s="6">
+        <v>0</v>
+      </c>
+      <c r="E94" s="6">
+        <v>300036</v>
+      </c>
+      <c r="F94" s="7">
+        <v>310084</v>
+      </c>
+      <c r="G94" s="7">
+        <v>0</v>
+      </c>
+      <c r="H94" s="7">
+        <v>0</v>
+      </c>
+      <c r="I94" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9">
+      <c r="B95" s="6">
+        <v>310091</v>
+      </c>
+      <c r="C95" s="6">
+        <v>0</v>
+      </c>
+      <c r="D95" s="6">
+        <v>0</v>
+      </c>
+      <c r="E95" s="6">
+        <v>300035</v>
+      </c>
+      <c r="F95" s="7">
+        <v>310087</v>
+      </c>
+      <c r="G95" s="7">
+        <v>0</v>
+      </c>
+      <c r="H95" s="7">
+        <v>0</v>
+      </c>
+      <c r="I95" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9">
+      <c r="B96" s="6">
+        <v>310092</v>
+      </c>
+      <c r="C96" s="6">
+        <v>0</v>
+      </c>
+      <c r="D96" s="6">
+        <v>0</v>
+      </c>
+      <c r="E96" s="6">
+        <v>300035</v>
+      </c>
+      <c r="F96" s="7">
+        <v>310088</v>
+      </c>
+      <c r="G96" s="7">
+        <v>0</v>
+      </c>
+      <c r="H96" s="7">
+        <v>0</v>
+      </c>
+      <c r="I96" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9">
+      <c r="B97" s="6">
+        <v>310093</v>
+      </c>
+      <c r="C97" s="6">
+        <v>0</v>
+      </c>
+      <c r="D97" s="6">
+        <v>0</v>
+      </c>
+      <c r="E97" s="6">
+        <v>300035</v>
+      </c>
+      <c r="F97" s="7">
+        <v>310089</v>
+      </c>
+      <c r="G97" s="10">
+        <v>0</v>
+      </c>
+      <c r="H97" s="7">
+        <v>0</v>
+      </c>
+      <c r="I97" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9">
+      <c r="B98" s="6">
+        <v>310094</v>
+      </c>
+      <c r="C98" s="6">
+        <v>0</v>
+      </c>
+      <c r="D98" s="6">
+        <v>0</v>
+      </c>
+      <c r="E98" s="6">
+        <v>300038</v>
+      </c>
+      <c r="F98" s="7">
+        <v>310097</v>
+      </c>
+      <c r="G98" s="7">
+        <v>0</v>
+      </c>
+      <c r="H98" s="7">
+        <v>0</v>
+      </c>
+      <c r="I98" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9">
+      <c r="B99" s="6">
+        <v>310095</v>
+      </c>
+      <c r="C99" s="6">
+        <v>0</v>
+      </c>
+      <c r="D99" s="6">
+        <v>0</v>
+      </c>
+      <c r="E99" s="6">
+        <v>300039</v>
+      </c>
+      <c r="F99" s="7">
+        <v>310099</v>
+      </c>
+      <c r="G99" s="7">
+        <v>0</v>
+      </c>
+      <c r="H99" s="7">
+        <v>0</v>
+      </c>
+      <c r="I99" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9">
+      <c r="B100" s="6">
+        <v>310096</v>
+      </c>
+      <c r="C100" s="6">
+        <v>0</v>
+      </c>
+      <c r="D100" s="6">
+        <v>0</v>
+      </c>
+      <c r="E100" s="6">
+        <v>300036</v>
+      </c>
+      <c r="F100" s="7">
+        <v>310083</v>
+      </c>
+      <c r="G100" s="7">
+        <v>0</v>
+      </c>
+      <c r="H100" s="7">
+        <v>0</v>
+      </c>
+      <c r="I100" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9">
+      <c r="B101" s="6">
+        <v>310097</v>
+      </c>
+      <c r="C101" s="6">
+        <v>0</v>
+      </c>
+      <c r="D101" s="6">
+        <v>0</v>
+      </c>
+      <c r="E101" s="6">
+        <v>300037</v>
+      </c>
+      <c r="F101" s="7">
+        <v>310094</v>
+      </c>
+      <c r="G101" s="7">
+        <v>0</v>
+      </c>
+      <c r="H101" s="7">
+        <v>0</v>
+      </c>
+      <c r="I101" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" s="3" customFormat="1" spans="1:16">
+      <c r="A102" s="14"/>
+      <c r="B102" s="14">
+        <v>310098</v>
+      </c>
+      <c r="C102" s="14">
+        <v>0</v>
+      </c>
+      <c r="D102" s="14">
+        <v>0</v>
+      </c>
+      <c r="E102" s="14"/>
+      <c r="F102" s="15"/>
+      <c r="G102" s="15">
+        <v>0</v>
+      </c>
+      <c r="H102" s="15">
+        <v>0</v>
+      </c>
+      <c r="I102" s="15">
+        <v>0</v>
+      </c>
+      <c r="J102" s="15"/>
+      <c r="K102" s="15"/>
+      <c r="L102" s="15"/>
+      <c r="M102" s="15"/>
+      <c r="N102" s="15"/>
+      <c r="O102" s="15"/>
+      <c r="P102" s="15"/>
+    </row>
+    <row r="103" spans="2:9">
+      <c r="B103" s="6">
+        <v>310099</v>
+      </c>
+      <c r="C103" s="6">
+        <v>0</v>
+      </c>
+      <c r="D103" s="6">
+        <v>0</v>
+      </c>
+      <c r="E103" s="6">
+        <v>300037</v>
+      </c>
+      <c r="F103" s="7">
+        <v>310095</v>
+      </c>
+      <c r="G103" s="7">
+        <v>0</v>
+      </c>
+      <c r="H103" s="7">
+        <v>0</v>
+      </c>
+      <c r="I103" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9">
+      <c r="B104" s="6">
+        <v>310100</v>
+      </c>
+      <c r="C104" s="6">
+        <v>0</v>
+      </c>
+      <c r="D104" s="6">
+        <v>0</v>
+      </c>
+      <c r="E104" s="6">
+        <v>300040</v>
+      </c>
+      <c r="F104" s="7">
+        <v>310103</v>
+      </c>
+      <c r="G104" s="7">
+        <v>0</v>
+      </c>
+      <c r="H104" s="7">
+        <v>0</v>
+      </c>
+      <c r="I104" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9">
+      <c r="B105" s="6">
+        <v>310101</v>
+      </c>
+      <c r="C105" s="6">
+        <v>0</v>
+      </c>
+      <c r="D105" s="6">
+        <v>0</v>
+      </c>
+      <c r="E105" s="6">
+        <v>300040</v>
+      </c>
+      <c r="F105" s="7">
+        <v>310104</v>
+      </c>
+      <c r="G105" s="7">
+        <v>0</v>
+      </c>
+      <c r="H105" s="7">
+        <v>0</v>
+      </c>
+      <c r="I105" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9">
+      <c r="B106" s="6">
+        <v>310102</v>
+      </c>
+      <c r="C106" s="6">
+        <v>0</v>
+      </c>
+      <c r="D106" s="6">
+        <v>0</v>
+      </c>
+      <c r="E106" s="6">
+        <v>300040</v>
+      </c>
+      <c r="F106" s="7">
+        <v>310105</v>
+      </c>
+      <c r="G106" s="7">
+        <v>0</v>
+      </c>
+      <c r="H106" s="7">
+        <v>0</v>
+      </c>
+      <c r="I106" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9">
+      <c r="B107" s="6">
+        <v>310103</v>
+      </c>
+      <c r="C107" s="6">
+        <v>0</v>
+      </c>
+      <c r="D107" s="6">
+        <v>0</v>
+      </c>
+      <c r="E107" s="6">
+        <v>300039</v>
+      </c>
+      <c r="F107" s="7">
+        <v>310100</v>
+      </c>
+      <c r="G107" s="7">
+        <v>0</v>
+      </c>
+      <c r="H107" s="7">
+        <v>0</v>
+      </c>
+      <c r="I107" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9">
+      <c r="B108" s="6">
+        <v>310104</v>
+      </c>
+      <c r="C108" s="6">
+        <v>0</v>
+      </c>
+      <c r="D108" s="6">
+        <v>0</v>
+      </c>
+      <c r="E108" s="6">
+        <v>300039</v>
+      </c>
+      <c r="F108" s="7">
+        <v>310101</v>
+      </c>
+      <c r="G108" s="7">
+        <v>0</v>
+      </c>
+      <c r="H108" s="7">
+        <v>0</v>
+      </c>
+      <c r="I108" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9">
+      <c r="B109" s="6">
+        <v>310105</v>
+      </c>
+      <c r="C109" s="6">
+        <v>0</v>
+      </c>
+      <c r="D109" s="6">
+        <v>0</v>
+      </c>
+      <c r="E109" s="6">
+        <v>300039</v>
+      </c>
+      <c r="F109" s="7">
+        <v>310102</v>
+      </c>
+      <c r="G109" s="7">
+        <v>0</v>
+      </c>
+      <c r="H109" s="7">
+        <v>0</v>
+      </c>
+      <c r="I109" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9">
+      <c r="B110" s="6">
+        <v>310106</v>
+      </c>
+      <c r="C110" s="6">
+        <v>0</v>
+      </c>
+      <c r="D110" s="6">
+        <v>0</v>
+      </c>
+      <c r="E110" s="6">
+        <v>300041</v>
+      </c>
+      <c r="F110" s="7">
+        <v>310108</v>
+      </c>
+      <c r="G110" s="7">
+        <v>0</v>
+      </c>
+      <c r="H110" s="7">
+        <v>0</v>
+      </c>
+      <c r="I110" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9">
+      <c r="B111" s="6">
+        <v>310107</v>
+      </c>
+      <c r="C111" s="6">
+        <v>0</v>
+      </c>
+      <c r="D111" s="6">
+        <v>0</v>
+      </c>
+      <c r="E111" s="6">
+        <v>300042</v>
+      </c>
+      <c r="F111" s="7">
+        <v>310109</v>
+      </c>
+      <c r="G111" s="7">
+        <v>0</v>
+      </c>
+      <c r="H111" s="7">
+        <v>0</v>
+      </c>
+      <c r="I111" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9">
+      <c r="B112" s="6">
+        <v>310108</v>
+      </c>
+      <c r="C112" s="6">
+        <v>0</v>
+      </c>
+      <c r="D112" s="6">
+        <v>0</v>
+      </c>
+      <c r="E112" s="6">
+        <v>300040</v>
+      </c>
+      <c r="F112" s="7">
+        <v>310106</v>
+      </c>
+      <c r="G112" s="7">
+        <v>0</v>
+      </c>
+      <c r="H112" s="7">
+        <v>0</v>
+      </c>
+      <c r="I112" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="2:9">
+      <c r="B113" s="6">
+        <v>310109</v>
+      </c>
+      <c r="C113" s="6">
+        <v>0</v>
+      </c>
+      <c r="D113" s="6">
+        <v>0</v>
+      </c>
+      <c r="E113" s="6">
+        <v>300040</v>
+      </c>
+      <c r="F113" s="7">
+        <v>310107</v>
+      </c>
+      <c r="G113" s="7">
+        <v>0</v>
+      </c>
+      <c r="H113" s="7">
+        <v>0</v>
+      </c>
+      <c r="I113" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9">
+      <c r="B114" s="6">
+        <v>310110</v>
+      </c>
+      <c r="C114" s="6">
+        <v>0</v>
+      </c>
+      <c r="D114" s="6">
+        <v>0</v>
+      </c>
+      <c r="E114" s="6">
+        <v>300008</v>
+      </c>
+      <c r="F114" s="7">
+        <v>310019</v>
+      </c>
+      <c r="G114" s="7">
+        <v>0</v>
+      </c>
+      <c r="H114" s="7">
+        <v>0</v>
+      </c>
+      <c r="I114" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9">
+      <c r="B115" s="6">
+        <v>310111</v>
+      </c>
+      <c r="C115" s="6">
+        <v>0</v>
+      </c>
+      <c r="D115" s="6">
+        <v>0</v>
+      </c>
+      <c r="E115" s="6">
+        <v>300008</v>
+      </c>
+      <c r="F115" s="7">
+        <v>310020</v>
+      </c>
+      <c r="G115" s="7">
+        <v>0</v>
+      </c>
+      <c r="H115" s="7">
+        <v>0</v>
+      </c>
+      <c r="I115" s="7">
         <v>0</v>
       </c>
     </row>

--- a/AAA-Luban-Excel/Datas/scene_Doors.xlsx
+++ b/AAA-Luban-Excel/Datas/scene_Doors.xlsx
@@ -1,32 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KaiJuNaibu\Desktop\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Project\Project-A\AAA-Luban-Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BDF3F98-7738-454B-827F-EA176E854C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35FA7779-9186-4DAD-9740-33F2E48C503D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="13875" windowHeight="20116" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4830" yWindow="1215" windowWidth="21675" windowHeight="14985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -112,17 +101,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -130,7 +119,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -497,25 +486,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="1.73046875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="6.9296875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="2.796875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="3.06640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.86328125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.53125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="7.46484375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="25.33203125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="19.46484375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="1.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="25.28515625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" style="3" customWidth="1"/>
     <col min="10" max="16" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="30">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -544,7 +533,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -573,7 +562,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -602,7 +591,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="94.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="120">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -631,7 +620,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16">
       <c r="B5" s="2">
         <v>310001</v>
       </c>
@@ -657,7 +646,7 @@
         <v>240003</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16">
       <c r="B6" s="2">
         <v>310002</v>
       </c>
@@ -683,7 +672,7 @@
         <v>240004</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16">
       <c r="B7" s="2">
         <v>310003</v>
       </c>
@@ -709,7 +698,7 @@
         <v>240004</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16">
       <c r="B8" s="2">
         <v>310004</v>
       </c>
@@ -735,7 +724,7 @@
         <v>240001</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16">
       <c r="B9" s="2">
         <v>310005</v>
       </c>
@@ -761,7 +750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16">
       <c r="B10" s="2">
         <v>310006</v>
       </c>
@@ -787,7 +776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" s="8" customFormat="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6">
         <v>310007</v>
@@ -821,7 +810,7 @@
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16">
       <c r="B12" s="2">
         <v>310008</v>
       </c>
@@ -847,7 +836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16">
       <c r="B13" s="2">
         <v>310009</v>
       </c>
@@ -873,7 +862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16">
       <c r="B14" s="2">
         <v>310010</v>
       </c>
@@ -899,7 +888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16">
       <c r="B15" s="2">
         <v>310011</v>
       </c>
@@ -925,7 +914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16">
       <c r="B16" s="2">
         <v>310012</v>
       </c>
@@ -951,7 +940,7 @@
         <v>240001</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16">
       <c r="B17" s="2">
         <v>310013</v>
       </c>
@@ -977,7 +966,7 @@
         <v>240003</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16">
       <c r="B18" s="2">
         <v>310014</v>
       </c>
@@ -988,10 +977,10 @@
         <v>0</v>
       </c>
       <c r="E18" s="2">
-        <v>300002</v>
+        <v>300008</v>
       </c>
       <c r="F18" s="2">
-        <v>310005</v>
+        <v>310017</v>
       </c>
       <c r="G18" s="3">
         <v>0</v>
@@ -1003,7 +992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16">
       <c r="B19" s="2">
         <v>310015</v>
       </c>
@@ -1029,7 +1018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" s="1" customFormat="1">
       <c r="A20" s="4"/>
       <c r="B20" s="4">
         <v>310016</v>
@@ -1063,7 +1052,7 @@
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16">
       <c r="B21" s="2">
         <v>310017</v>
       </c>
@@ -1089,7 +1078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16">
       <c r="B22" s="2">
         <v>310018</v>
       </c>
@@ -1115,7 +1104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16">
       <c r="B23" s="2">
         <v>310019</v>
       </c>
@@ -1141,7 +1130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16">
       <c r="B24" s="2">
         <v>310020</v>
       </c>
@@ -1167,7 +1156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16">
       <c r="B25" s="2">
         <v>310021</v>
       </c>
@@ -1193,7 +1182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16">
       <c r="B26" s="2">
         <v>310022</v>
       </c>
@@ -1219,7 +1208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16">
       <c r="B27" s="2">
         <v>310023</v>
       </c>
@@ -1245,7 +1234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16">
       <c r="B28" s="2">
         <v>310024</v>
       </c>
@@ -1271,7 +1260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16">
       <c r="B29" s="2">
         <v>310025</v>
       </c>
@@ -1297,7 +1286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16">
       <c r="B30" s="2">
         <v>310026</v>
       </c>
@@ -1323,7 +1312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16">
       <c r="B31" s="2">
         <v>310027</v>
       </c>
@@ -1349,7 +1338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16">
       <c r="B32" s="2">
         <v>310028</v>
       </c>
@@ -1375,7 +1364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16">
       <c r="B33" s="2">
         <v>310029</v>
       </c>
@@ -1401,7 +1390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16">
       <c r="B34" s="2">
         <v>310030</v>
       </c>
@@ -1427,7 +1416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16">
       <c r="B35" s="2">
         <v>310031</v>
       </c>
@@ -1453,7 +1442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16">
       <c r="B36" s="2">
         <v>310032</v>
       </c>
@@ -1479,7 +1468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16">
       <c r="B37" s="2">
         <v>310033</v>
       </c>
@@ -1505,7 +1494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16">
       <c r="B38" s="2">
         <v>310034</v>
       </c>
@@ -1531,7 +1520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16">
       <c r="B39" s="2">
         <v>310035</v>
       </c>
@@ -1557,7 +1546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16">
       <c r="B40" s="2">
         <v>310036</v>
       </c>
@@ -1583,7 +1572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" s="13" customFormat="1">
       <c r="A41" s="11"/>
       <c r="B41" s="11">
         <v>310037</v>
@@ -1617,7 +1606,7 @@
       <c r="O41" s="12"/>
       <c r="P41" s="12"/>
     </row>
-    <row r="42" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" s="13" customFormat="1">
       <c r="A42" s="11"/>
       <c r="B42" s="11">
         <v>310040</v>
@@ -1651,7 +1640,7 @@
       <c r="O42" s="12"/>
       <c r="P42" s="12"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16">
       <c r="B43" s="2">
         <v>310041</v>
       </c>
@@ -1677,7 +1666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16">
       <c r="B44" s="2">
         <v>310042</v>
       </c>
@@ -1703,7 +1692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16">
       <c r="B45" s="2">
         <v>310043</v>
       </c>
@@ -1729,7 +1718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16">
       <c r="B46" s="2">
         <v>310044</v>
       </c>
@@ -1755,7 +1744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16">
       <c r="B47" s="2">
         <v>310045</v>
       </c>
@@ -1781,7 +1770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16">
       <c r="B48" s="2">
         <v>310046</v>
       </c>
@@ -1807,7 +1796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:9">
       <c r="B49" s="2">
         <v>310047</v>
       </c>
@@ -1833,7 +1822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:9">
       <c r="B50" s="2">
         <v>310048</v>
       </c>
@@ -1859,7 +1848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:9">
       <c r="B51" s="2">
         <v>310049</v>
       </c>
@@ -1885,7 +1874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:9">
       <c r="B52" s="2">
         <v>310050</v>
       </c>
@@ -1911,7 +1900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:9">
       <c r="B53" s="2">
         <v>310051</v>
       </c>
@@ -1937,7 +1926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:9">
       <c r="B54" s="2">
         <v>310052</v>
       </c>
@@ -1963,7 +1952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:9">
       <c r="B55" s="2">
         <v>310053</v>
       </c>
@@ -1989,7 +1978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:9">
       <c r="B56" s="2">
         <v>310054</v>
       </c>
@@ -2015,7 +2004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:9">
       <c r="B57" s="2">
         <v>310055</v>
       </c>
@@ -2041,7 +2030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:9">
       <c r="B58" s="2">
         <v>310056</v>
       </c>
@@ -2067,7 +2056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:9">
       <c r="B59" s="2">
         <v>310057</v>
       </c>
@@ -2093,7 +2082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:9">
       <c r="B60" s="2">
         <v>310058</v>
       </c>
@@ -2119,7 +2108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:9">
       <c r="B61" s="2">
         <v>310059</v>
       </c>
@@ -2145,7 +2134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:9">
       <c r="B62" s="2">
         <v>310060</v>
       </c>
@@ -2171,7 +2160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:9">
       <c r="B63" s="2">
         <v>310061</v>
       </c>
@@ -2197,7 +2186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:9">
       <c r="B64" s="2">
         <v>310062</v>
       </c>
@@ -2223,7 +2212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16">
       <c r="B65" s="2">
         <v>310063</v>
       </c>
@@ -2249,7 +2238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16">
       <c r="B66" s="2">
         <v>310064</v>
       </c>
@@ -2275,7 +2264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16">
       <c r="B67" s="2">
         <v>310065</v>
       </c>
@@ -2301,7 +2290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16">
       <c r="B68" s="2">
         <v>310066</v>
       </c>
@@ -2327,7 +2316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16">
       <c r="B69" s="2">
         <v>310067</v>
       </c>
@@ -2353,7 +2342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16">
       <c r="B70" s="2">
         <v>310068</v>
       </c>
@@ -2379,7 +2368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16">
       <c r="B71" s="2">
         <v>310069</v>
       </c>
@@ -2405,7 +2394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16">
       <c r="B72" s="2">
         <v>310070</v>
       </c>
@@ -2431,7 +2420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16">
       <c r="B73" s="2">
         <v>310071</v>
       </c>
@@ -2457,7 +2446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16" s="13" customFormat="1">
       <c r="A74" s="11"/>
       <c r="B74" s="11">
         <v>310072</v>
@@ -2491,7 +2480,7 @@
       <c r="O74" s="12"/>
       <c r="P74" s="12"/>
     </row>
-    <row r="75" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16" s="13" customFormat="1">
       <c r="A75" s="11"/>
       <c r="B75" s="11">
         <v>310075</v>
@@ -2525,7 +2514,7 @@
       <c r="O75" s="12"/>
       <c r="P75" s="12"/>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16">
       <c r="B76" s="2">
         <v>310076</v>
       </c>
@@ -2551,7 +2540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16">
       <c r="B77" s="2">
         <v>310077</v>
       </c>
@@ -2577,7 +2566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:16">
       <c r="B78" s="2">
         <v>310078</v>
       </c>
@@ -2603,7 +2592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:16">
       <c r="B79" s="2">
         <v>310079</v>
       </c>
@@ -2629,7 +2618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:16">
       <c r="B80" s="2">
         <v>310080</v>
       </c>
@@ -2655,7 +2644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16">
       <c r="B81" s="2">
         <v>310081</v>
       </c>
@@ -2681,7 +2670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:16">
       <c r="B82" s="2">
         <v>310082</v>
       </c>
@@ -2707,7 +2696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16">
       <c r="B83" s="2">
         <v>310083</v>
       </c>
@@ -2733,7 +2722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:16">
       <c r="B84" s="2">
         <v>310084</v>
       </c>
@@ -2759,7 +2748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:16">
       <c r="B85" s="2">
         <v>310085</v>
       </c>
@@ -2785,7 +2774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16" s="16" customFormat="1">
       <c r="A86" s="14"/>
       <c r="B86" s="14">
         <v>310086</v>
@@ -2819,7 +2808,7 @@
       <c r="O86" s="15"/>
       <c r="P86" s="15"/>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:16">
       <c r="B87" s="2">
         <v>310087</v>
       </c>
@@ -2845,7 +2834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:16">
       <c r="B88" s="2">
         <v>310088</v>
       </c>
@@ -2871,7 +2860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16">
       <c r="B89" s="2">
         <v>310089</v>
       </c>
@@ -2897,7 +2886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16">
       <c r="B90" s="2">
         <v>310090</v>
       </c>
@@ -2923,7 +2912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:16">
       <c r="B91" s="2">
         <v>310091</v>
       </c>
@@ -2949,7 +2938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:16">
       <c r="B92" s="2">
         <v>310092</v>
       </c>
@@ -2975,7 +2964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:16">
       <c r="B93" s="2">
         <v>310093</v>
       </c>
@@ -3001,7 +2990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:16">
       <c r="B94" s="2">
         <v>310094</v>
       </c>
@@ -3027,7 +3016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16">
       <c r="B95" s="2">
         <v>310095</v>
       </c>
@@ -3053,7 +3042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:16">
       <c r="B96" s="2">
         <v>310096</v>
       </c>
@@ -3079,7 +3068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:16" s="13" customFormat="1">
       <c r="A97" s="11"/>
       <c r="B97" s="11">
         <v>310097</v>
@@ -3113,7 +3102,7 @@
       <c r="O97" s="12"/>
       <c r="P97" s="12"/>
     </row>
-    <row r="98" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:16" s="13" customFormat="1">
       <c r="A98" s="11"/>
       <c r="B98" s="11">
         <v>310099</v>
@@ -3147,7 +3136,7 @@
       <c r="O98" s="12"/>
       <c r="P98" s="12"/>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:16">
       <c r="B99" s="2">
         <v>310100</v>
       </c>
@@ -3173,7 +3162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:16">
       <c r="B100" s="2">
         <v>310101</v>
       </c>
@@ -3199,7 +3188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:16">
       <c r="B101" s="2">
         <v>310102</v>
       </c>
@@ -3225,7 +3214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:16">
       <c r="B102" s="2">
         <v>310103</v>
       </c>
@@ -3251,7 +3240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16">
       <c r="B103" s="2">
         <v>310104</v>
       </c>
@@ -3277,7 +3266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16">
       <c r="B104" s="2">
         <v>310105</v>
       </c>
@@ -3303,7 +3292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16">
       <c r="B105" s="2">
         <v>310106</v>
       </c>
@@ -3329,7 +3318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:16">
       <c r="B106" s="2">
         <v>310107</v>
       </c>
@@ -3355,7 +3344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:16">
       <c r="B107" s="2">
         <v>310108</v>
       </c>
@@ -3381,7 +3370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:16">
       <c r="B108" s="2">
         <v>310109</v>
       </c>
@@ -3407,7 +3396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:16">
       <c r="B109" s="2">
         <v>310110</v>
       </c>
@@ -3433,7 +3422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16">
       <c r="B110" s="2">
         <v>310111</v>
       </c>
@@ -3459,7 +3448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16">
       <c r="B111" s="2">
         <v>310112</v>
       </c>
@@ -3485,7 +3474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:16">
       <c r="B112" s="2">
         <v>310113</v>
       </c>
@@ -3511,7 +3500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:9">
       <c r="B113" s="2">
         <v>310114</v>
       </c>
@@ -3537,7 +3526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:9">
       <c r="B114" s="2">
         <v>310115</v>
       </c>
@@ -3563,7 +3552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:9">
       <c r="B115" s="2">
         <v>310116</v>
       </c>
@@ -3589,7 +3578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:9">
       <c r="B116" s="2">
         <v>310117</v>
       </c>
@@ -3615,7 +3604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:9">
       <c r="B117" s="2">
         <v>310118</v>
       </c>
@@ -3641,7 +3630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:9">
       <c r="B118" s="2">
         <v>310119</v>
       </c>
@@ -3667,7 +3656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:9">
       <c r="B119" s="2">
         <v>310120</v>
       </c>
@@ -3693,7 +3682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:9">
       <c r="B120" s="2">
         <v>310121</v>
       </c>

--- a/AAA-Luban-Excel/Datas/scene_Doors.xlsx
+++ b/AAA-Luban-Excel/Datas/scene_Doors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Project\Project-A\AAA-Luban-Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35FA7779-9186-4DAD-9740-33F2E48C503D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CFD02BD-FF2E-4478-839D-6D006D461306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4830" yWindow="1215" windowWidth="21675" windowHeight="14985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4005" yWindow="2805" windowWidth="20145" windowHeight="12390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -484,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P120"/>
+  <dimension ref="A1:P127"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A116" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F127" sqref="F127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3102,39 +3102,39 @@
       <c r="O97" s="12"/>
       <c r="P97" s="12"/>
     </row>
-    <row r="98" spans="1:16" s="13" customFormat="1">
-      <c r="A98" s="11"/>
-      <c r="B98" s="11">
+    <row r="98" spans="1:16" s="8" customFormat="1">
+      <c r="A98" s="6"/>
+      <c r="B98" s="6">
         <v>310099</v>
       </c>
-      <c r="C98" s="11">
-        <v>0</v>
-      </c>
-      <c r="D98" s="11">
-        <v>0</v>
-      </c>
-      <c r="E98" s="11">
-        <v>300037</v>
-      </c>
-      <c r="F98" s="12">
-        <v>310095</v>
-      </c>
-      <c r="G98" s="12">
-        <v>0</v>
-      </c>
-      <c r="H98" s="12">
-        <v>0</v>
-      </c>
-      <c r="I98" s="12">
-        <v>0</v>
-      </c>
-      <c r="J98" s="12"/>
-      <c r="K98" s="12"/>
-      <c r="L98" s="12"/>
-      <c r="M98" s="12"/>
-      <c r="N98" s="12"/>
-      <c r="O98" s="12"/>
-      <c r="P98" s="12"/>
+      <c r="C98" s="6">
+        <v>0</v>
+      </c>
+      <c r="D98" s="6">
+        <v>0</v>
+      </c>
+      <c r="E98" s="6">
+        <v>300034</v>
+      </c>
+      <c r="F98" s="7">
+        <v>310127</v>
+      </c>
+      <c r="G98" s="7">
+        <v>0</v>
+      </c>
+      <c r="H98" s="7">
+        <v>0</v>
+      </c>
+      <c r="I98" s="7">
+        <v>0</v>
+      </c>
+      <c r="J98" s="7"/>
+      <c r="K98" s="7"/>
+      <c r="L98" s="7"/>
+      <c r="M98" s="7"/>
+      <c r="N98" s="7"/>
+      <c r="O98" s="7"/>
+      <c r="P98" s="7"/>
     </row>
     <row r="99" spans="1:16">
       <c r="B99" s="2">
@@ -3705,6 +3705,143 @@
         <v>0</v>
       </c>
       <c r="I120" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="2:9">
+      <c r="B121" s="2">
+        <v>310122</v>
+      </c>
+      <c r="C121" s="2">
+        <v>0</v>
+      </c>
+      <c r="D121" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="2:9">
+      <c r="B122" s="2">
+        <v>310123</v>
+      </c>
+      <c r="C122" s="2">
+        <v>0</v>
+      </c>
+      <c r="D122" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="2:9">
+      <c r="B123" s="2">
+        <v>310124</v>
+      </c>
+      <c r="C123" s="2">
+        <v>0</v>
+      </c>
+      <c r="D123" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="2:9">
+      <c r="B124" s="2">
+        <v>310125</v>
+      </c>
+      <c r="C124" s="2">
+        <v>0</v>
+      </c>
+      <c r="D124" s="2">
+        <v>0</v>
+      </c>
+      <c r="E124" s="2">
+        <v>300049</v>
+      </c>
+      <c r="F124" s="3">
+        <v>310128</v>
+      </c>
+      <c r="G124" s="3">
+        <v>0</v>
+      </c>
+      <c r="H124" s="3">
+        <v>0</v>
+      </c>
+      <c r="I124" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="2:9">
+      <c r="B125" s="2">
+        <v>310126</v>
+      </c>
+      <c r="C125" s="2">
+        <v>0</v>
+      </c>
+      <c r="D125" s="2">
+        <v>0</v>
+      </c>
+      <c r="E125" s="2">
+        <v>300033</v>
+      </c>
+      <c r="F125" s="3">
+        <v>310075</v>
+      </c>
+      <c r="G125" s="3">
+        <v>0</v>
+      </c>
+      <c r="H125" s="3">
+        <v>0</v>
+      </c>
+      <c r="I125" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="2:9">
+      <c r="B126" s="2">
+        <v>310127</v>
+      </c>
+      <c r="C126" s="2">
+        <v>0</v>
+      </c>
+      <c r="D126" s="2">
+        <v>0</v>
+      </c>
+      <c r="E126" s="2">
+        <v>300039</v>
+      </c>
+      <c r="F126" s="3">
+        <v>310099</v>
+      </c>
+      <c r="G126" s="3">
+        <v>0</v>
+      </c>
+      <c r="H126" s="3">
+        <v>0</v>
+      </c>
+      <c r="I126" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="2:9">
+      <c r="B127" s="2">
+        <v>310128</v>
+      </c>
+      <c r="C127" s="2">
+        <v>0</v>
+      </c>
+      <c r="D127" s="2">
+        <v>0</v>
+      </c>
+      <c r="E127" s="2">
+        <v>300035</v>
+      </c>
+      <c r="F127" s="3">
+        <v>310085</v>
+      </c>
+      <c r="G127" s="3">
+        <v>0</v>
+      </c>
+      <c r="H127" s="3">
+        <v>0</v>
+      </c>
+      <c r="I127" s="3">
         <v>0</v>
       </c>
     </row>
